--- a/Lab 2/02_Digital_Data_Collection_Tables.xlsx
+++ b/Lab 2/02_Digital_Data_Collection_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\Year 3\MEC-E-301\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B594C-0D2E-459E-BF57-FD166E024EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AC6F3-9E64-4C9D-8149-3BD75A00DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -262,6 +262,15 @@
   <si>
     <t>Voltage</t>
   </si>
+  <si>
+    <t>tdist inv</t>
+  </si>
+  <si>
+    <t>P_x</t>
+  </si>
+  <si>
+    <t>U_x</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -465,18 +474,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,34 +498,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -750,154 +751,154 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="8"/>
+    <col min="2" max="2" width="18.453125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -915,22 +916,22 @@
       <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="12" width="10.85546875" style="2"/>
+    <col min="8" max="12" width="10.81640625" style="2"/>
     <col min="13" max="13" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="2"/>
+    <col min="14" max="14" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -941,12 +942,12 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -972,7 +973,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -998,8 +999,8 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="39">
         <v>0.10199999999999999</v>
       </c>
       <c r="B5">
@@ -1024,8 +1025,8 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
       <c r="B6">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1048,8 +1049,8 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="40"/>
       <c r="B7">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1072,8 +1073,8 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="40"/>
       <c r="B8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1096,8 +1097,8 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="40"/>
       <c r="B9">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1120,8 +1121,8 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="40"/>
       <c r="B10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1144,8 +1145,8 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="40"/>
       <c r="B11">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1168,8 +1169,8 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="40"/>
       <c r="B12">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1192,8 +1193,8 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="40"/>
       <c r="B13">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -1216,8 +1217,8 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="41"/>
       <c r="B14" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1240,8 +1241,8 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="42">
         <v>1.024</v>
       </c>
       <c r="B15">
@@ -1256,15 +1257,15 @@
       <c r="E15" s="2">
         <v>1.016</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="45"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="43"/>
       <c r="B16">
         <v>1.0249999999999999</v>
       </c>
@@ -1277,15 +1278,15 @@
       <c r="E16" s="2">
         <v>1.016</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="46"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="43"/>
       <c r="B17">
         <v>1.0249999999999999</v>
       </c>
@@ -1298,15 +1299,15 @@
       <c r="E17" s="2">
         <v>1.016</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="46"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="43"/>
       <c r="B18">
         <v>1.0249999999999999</v>
       </c>
@@ -1319,15 +1320,15 @@
       <c r="E18" s="2">
         <v>1.016</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="46"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="43"/>
       <c r="B19">
         <v>1.0249999999999999</v>
       </c>
@@ -1340,15 +1341,15 @@
       <c r="E19" s="2">
         <v>1.016</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="46"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="43"/>
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
@@ -1361,15 +1362,15 @@
       <c r="E20" s="2">
         <v>1.016</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="46"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="43"/>
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
@@ -1382,15 +1383,15 @@
       <c r="E21" s="2">
         <v>1.016</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="46"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="43"/>
       <c r="B22">
         <v>1.0249999999999999</v>
       </c>
@@ -1403,15 +1404,15 @@
       <c r="E22" s="2">
         <v>1.016</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="46"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="43"/>
       <c r="B23">
         <v>1.0249999999999999</v>
       </c>
@@ -1424,15 +1425,15 @@
       <c r="E23" s="2">
         <v>1.016</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="46"/>
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
       <c r="B24" s="10">
         <v>1.0249999999999999</v>
       </c>
@@ -1445,15 +1446,15 @@
       <c r="E24" s="2">
         <v>1.016</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="47"/>
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="39">
         <v>1.8</v>
       </c>
       <c r="B25">
@@ -1468,15 +1469,15 @@
       <c r="E25" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="45"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="40"/>
       <c r="B26">
         <v>1.821</v>
       </c>
@@ -1489,15 +1490,15 @@
       <c r="E26" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F26" s="34"/>
+      <c r="F26" s="46"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="40"/>
       <c r="B27">
         <v>1.8120000000000001</v>
       </c>
@@ -1510,15 +1511,15 @@
       <c r="E27" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F27" s="34"/>
+      <c r="F27" s="46"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
       <c r="B28">
         <v>1.8160000000000001</v>
       </c>
@@ -1531,15 +1532,15 @@
       <c r="E28" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="46"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="40"/>
       <c r="B29">
         <v>1.8120000000000001</v>
       </c>
@@ -1552,15 +1553,15 @@
       <c r="E29" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="46"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="40"/>
       <c r="B30">
         <v>1.8120000000000001</v>
       </c>
@@ -1573,15 +1574,15 @@
       <c r="E30" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="46"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="40"/>
       <c r="B31">
         <v>1.8160000000000001</v>
       </c>
@@ -1594,15 +1595,15 @@
       <c r="E31" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="46"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="40"/>
       <c r="B32">
         <v>1.8160000000000001</v>
       </c>
@@ -1615,15 +1616,15 @@
       <c r="E32" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F32" s="34"/>
+      <c r="F32" s="46"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
       <c r="B33">
         <v>1.8120000000000001</v>
       </c>
@@ -1636,15 +1637,15 @@
       <c r="E33" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F33" s="34"/>
+      <c r="F33" s="46"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
       <c r="B34" s="10">
         <v>1.8160000000000001</v>
       </c>
@@ -1657,15 +1658,15 @@
       <c r="E34" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="47"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="39">
         <v>2.5</v>
       </c>
       <c r="B35" s="21">
@@ -1680,14 +1681,14 @@
       <c r="E35" s="22">
         <v>2.5</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="45"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="40"/>
       <c r="B36" s="21">
         <v>2.524</v>
       </c>
@@ -1700,14 +1701,14 @@
       <c r="E36" s="12">
         <v>2.5</v>
       </c>
-      <c r="F36" s="34"/>
+      <c r="F36" s="46"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
       <c r="B37" s="21">
         <v>2.4950000000000001</v>
       </c>
@@ -1720,14 +1721,14 @@
       <c r="E37" s="12">
         <v>2.5</v>
       </c>
-      <c r="F37" s="34"/>
+      <c r="F37" s="46"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
       <c r="B38" s="21">
         <v>2.524</v>
       </c>
@@ -1740,14 +1741,14 @@
       <c r="E38" s="12">
         <v>2.5</v>
       </c>
-      <c r="F38" s="34"/>
+      <c r="F38" s="46"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="40"/>
       <c r="B39" s="21">
         <v>2.5099999999999998</v>
       </c>
@@ -1760,14 +1761,14 @@
       <c r="E39" s="12">
         <v>2.5</v>
       </c>
-      <c r="F39" s="34"/>
+      <c r="F39" s="46"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="40"/>
       <c r="B40" s="21">
         <v>2.52</v>
       </c>
@@ -1780,14 +1781,14 @@
       <c r="E40" s="12">
         <v>2.5</v>
       </c>
-      <c r="F40" s="34"/>
+      <c r="F40" s="46"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="40"/>
       <c r="B41" s="21">
         <v>2.5539999999999998</v>
       </c>
@@ -1800,14 +1801,14 @@
       <c r="E41" s="12">
         <v>2.5</v>
       </c>
-      <c r="F41" s="34"/>
+      <c r="F41" s="46"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
       <c r="B42" s="21">
         <v>2.524</v>
       </c>
@@ -1820,14 +1821,14 @@
       <c r="E42" s="12">
         <v>2.5</v>
       </c>
-      <c r="F42" s="34"/>
+      <c r="F42" s="46"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
       <c r="B43" s="21">
         <v>2.5339999999999998</v>
       </c>
@@ -1840,14 +1841,14 @@
       <c r="E43" s="12">
         <v>2.5</v>
       </c>
-      <c r="F43" s="34"/>
+      <c r="F43" s="46"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="41"/>
       <c r="B44" s="13">
         <v>2.52</v>
       </c>
@@ -1860,34 +1861,34 @@
       <c r="E44" s="13">
         <v>2.5</v>
       </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="47"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="36" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36" t="s">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-    </row>
-    <row r="50" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" ht="93" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="24">
         <v>1.024</v>
       </c>
@@ -2373,7 +2374,7 @@
       <c r="E62" s="2">
         <v>1.016</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2392,7 +2393,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="24">
         <v>1.024</v>
       </c>
@@ -2408,7 +2409,7 @@
       <c r="E63" s="2">
         <v>1.016</v>
       </c>
-      <c r="F63" s="34"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2427,7 +2428,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="24">
         <v>1.024</v>
       </c>
@@ -2443,7 +2444,7 @@
       <c r="E64" s="2">
         <v>1.016</v>
       </c>
-      <c r="F64" s="34"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="24">
         <v>1.024</v>
       </c>
@@ -2478,7 +2479,7 @@
       <c r="E65" s="2">
         <v>1.016</v>
       </c>
-      <c r="F65" s="34"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2497,7 +2498,7 @@
       </c>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="24">
         <v>1.024</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="E66" s="2">
         <v>1.016</v>
       </c>
-      <c r="F66" s="34"/>
+      <c r="F66" s="46"/>
       <c r="G66" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2532,7 +2533,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="24">
         <v>1.024</v>
       </c>
@@ -2548,7 +2549,7 @@
       <c r="E67" s="2">
         <v>1.016</v>
       </c>
-      <c r="F67" s="34"/>
+      <c r="F67" s="46"/>
       <c r="G67" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2567,7 +2568,7 @@
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="24">
         <v>1.024</v>
       </c>
@@ -2583,7 +2584,7 @@
       <c r="E68" s="2">
         <v>1.016</v>
       </c>
-      <c r="F68" s="34"/>
+      <c r="F68" s="46"/>
       <c r="G68" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2602,7 +2603,7 @@
       </c>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="24">
         <v>1.024</v>
       </c>
@@ -2618,7 +2619,7 @@
       <c r="E69" s="2">
         <v>1.016</v>
       </c>
-      <c r="F69" s="34"/>
+      <c r="F69" s="46"/>
       <c r="G69" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2637,7 +2638,7 @@
       </c>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="24">
         <v>1.024</v>
       </c>
@@ -2653,7 +2654,7 @@
       <c r="E70" s="2">
         <v>1.016</v>
       </c>
-      <c r="F70" s="34"/>
+      <c r="F70" s="46"/>
       <c r="G70" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2672,7 +2673,7 @@
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="24">
         <v>1.024</v>
       </c>
@@ -2688,7 +2689,7 @@
       <c r="E71" s="2">
         <v>1.016</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2707,7 +2708,7 @@
       </c>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="23">
         <v>1.8</v>
       </c>
@@ -2723,7 +2724,7 @@
       <c r="E72" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F72" s="33"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2742,7 +2743,7 @@
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="23">
         <v>1.8</v>
       </c>
@@ -2758,7 +2759,7 @@
       <c r="E73" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F73" s="34"/>
+      <c r="F73" s="46"/>
       <c r="G73" s="21">
         <f t="shared" si="1"/>
         <v>2.0999999999999908E-2</v>
@@ -2777,7 +2778,7 @@
       </c>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="23">
         <v>1.8</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="E74" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F74" s="34"/>
+      <c r="F74" s="46"/>
       <c r="G74" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2812,7 +2813,7 @@
       </c>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="23">
         <v>1.8</v>
       </c>
@@ -2828,7 +2829,7 @@
       <c r="E75" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F75" s="34"/>
+      <c r="F75" s="46"/>
       <c r="G75" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2847,7 +2848,7 @@
       </c>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="23">
         <v>1.8</v>
       </c>
@@ -2863,7 +2864,7 @@
       <c r="E76" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F76" s="34"/>
+      <c r="F76" s="46"/>
       <c r="G76" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2882,7 +2883,7 @@
       </c>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="23">
         <v>1.8</v>
       </c>
@@ -2898,7 +2899,7 @@
       <c r="E77" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F77" s="34"/>
+      <c r="F77" s="46"/>
       <c r="G77" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2917,7 +2918,7 @@
       </c>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="23">
         <v>1.8</v>
       </c>
@@ -2933,7 +2934,7 @@
       <c r="E78" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F78" s="34"/>
+      <c r="F78" s="46"/>
       <c r="G78" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2952,7 +2953,7 @@
       </c>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="23">
         <v>1.8</v>
       </c>
@@ -2968,7 +2969,7 @@
       <c r="E79" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F79" s="34"/>
+      <c r="F79" s="46"/>
       <c r="G79" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3005,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="23">
         <v>1.8</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="E80" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F80" s="34"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -3058,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="23">
         <v>1.8</v>
       </c>
@@ -3074,7 +3075,7 @@
       <c r="E81" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F81" s="35"/>
+      <c r="F81" s="47"/>
       <c r="G81" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3111,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="23">
         <v>2.5</v>
       </c>
@@ -3127,7 +3128,7 @@
       <c r="E82" s="22">
         <v>2.5</v>
       </c>
-      <c r="F82" s="33"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3164,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="23">
         <v>2.5</v>
       </c>
@@ -3180,7 +3181,7 @@
       <c r="E83" s="12">
         <v>2.5</v>
       </c>
-      <c r="F83" s="34"/>
+      <c r="F83" s="46"/>
       <c r="G83" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3217,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="23">
         <v>2.5</v>
       </c>
@@ -3233,7 +3234,7 @@
       <c r="E84" s="12">
         <v>2.5</v>
       </c>
-      <c r="F84" s="34"/>
+      <c r="F84" s="46"/>
       <c r="G84" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3270,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="23">
         <v>2.5</v>
       </c>
@@ -3286,7 +3287,7 @@
       <c r="E85" s="12">
         <v>2.5</v>
       </c>
-      <c r="F85" s="34"/>
+      <c r="F85" s="46"/>
       <c r="G85" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3323,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="23">
         <v>2.5</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="E86" s="12">
         <v>2.5</v>
       </c>
-      <c r="F86" s="34"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
@@ -3376,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="23">
         <v>2.5</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="E87" s="12">
         <v>2.5</v>
       </c>
-      <c r="F87" s="34"/>
+      <c r="F87" s="46"/>
       <c r="G87" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3429,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="23">
         <v>2.5</v>
       </c>
@@ -3445,7 +3446,7 @@
       <c r="E88" s="12">
         <v>2.5</v>
       </c>
-      <c r="F88" s="34"/>
+      <c r="F88" s="46"/>
       <c r="G88" s="21">
         <f t="shared" si="1"/>
         <v>5.3999999999999826E-2</v>
@@ -3482,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="23">
         <v>2.5</v>
       </c>
@@ -3498,7 +3499,7 @@
       <c r="E89" s="12">
         <v>2.5</v>
       </c>
-      <c r="F89" s="34"/>
+      <c r="F89" s="46"/>
       <c r="G89" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3532,7 +3533,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="23">
         <v>2.5</v>
       </c>
@@ -3548,7 +3549,7 @@
       <c r="E90" s="12">
         <v>2.5</v>
       </c>
-      <c r="F90" s="34"/>
+      <c r="F90" s="46"/>
       <c r="G90" s="21">
         <f t="shared" si="1"/>
         <v>3.3999999999999808E-2</v>
@@ -3582,7 +3583,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="23">
         <v>2.5</v>
       </c>
@@ -3598,7 +3599,7 @@
       <c r="E91" s="13">
         <v>2.5</v>
       </c>
-      <c r="F91" s="35"/>
+      <c r="F91" s="47"/>
       <c r="G91" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3632,7 +3633,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -3663,7 +3664,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -3689,7 +3690,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -3717,7 +3718,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="31" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96" s="24">
         <v>1.024</v>
@@ -3841,7 +3842,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97" s="23">
         <v>1.8</v>
@@ -3900,7 +3901,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98" s="23">
         <v>2.5</v>
@@ -3959,7 +3960,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -3985,7 +3986,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -4011,7 +4012,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102" s="24">
         <v>1.024</v>
@@ -4127,7 +4128,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103" s="23">
         <v>1.8</v>
@@ -4182,7 +4183,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104" s="23">
         <v>2.5</v>
@@ -4237,7 +4238,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -4263,7 +4264,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -4289,7 +4290,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="62" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108" s="24">
         <v>1.024</v>
@@ -4405,7 +4406,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109" s="23">
         <v>1.8</v>
@@ -4460,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110" s="23">
         <v>2.5</v>
@@ -4515,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -4541,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -4567,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" ht="62" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>13</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114" s="24">
         <v>1.024</v>
@@ -4683,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115" s="23">
         <v>1.8</v>
@@ -4738,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116" s="23">
         <v>2.5</v>
@@ -4793,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -4819,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -4844,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="62" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>14</v>
       </c>
@@ -4888,10 +4889,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="C121" s="2" t="s">
         <v>33</v>
@@ -4909,7 +4910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="C122" s="2" t="s">
         <v>38</v>
@@ -4927,7 +4928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123" s="3" t="s">
         <v>10</v>
@@ -4956,7 +4957,7 @@
       <c r="O123" s="23"/>
       <c r="P123" s="23"/>
     </row>
-    <row r="124" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="31" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124" s="3" t="s">
         <v>11</v>
@@ -4985,7 +4986,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="62" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -5014,7 +5015,7 @@
         <v>53.999999999999829</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="62" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126" s="3" t="s">
         <v>13</v>
@@ -5044,7 +5045,7 @@
         <v>16.999999999999904</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127" s="3" t="s">
         <v>14</v>
@@ -5073,7 +5074,7 @@
         <v>83.000000000000185</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5090,7 +5091,7 @@
         <v>23.999999999999993</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5107,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5119,7 +5120,7 @@
       <c r="I130"/>
       <c r="M130" s="28"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131" s="2" t="s">
@@ -5140,7 +5141,7 @@
       <c r="H131"/>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132" s="2" t="s">
@@ -5161,7 +5162,7 @@
       <c r="H132"/>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -5186,7 +5187,7 @@
       <c r="H133"/>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="31" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134" s="3" t="s">
         <v>11</v>
@@ -5211,7 +5212,7 @@
       <c r="H134"/>
       <c r="I134"/>
     </row>
-    <row r="135" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135" s="3" t="s">
         <v>12</v>
@@ -5247,7 +5248,7 @@
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="62" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136" s="3" t="s">
         <v>13</v>
@@ -5279,7 +5280,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137" s="3" t="s">
         <v>14</v>
@@ -5311,7 +5312,7 @@
         <v>0.90000000000000013</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5329,7 +5330,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5347,7 +5348,7 @@
         <v>1.0199999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -5365,7 +5366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -5376,7 +5377,7 @@
       <c r="H141"/>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -5387,7 +5388,7 @@
       <c r="H142"/>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -5398,7 +5399,7 @@
       <c r="H143"/>
       <c r="I143"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -5411,6 +5412,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F81"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A25:A34"/>
@@ -5418,11 +5424,6 @@
     <mergeCell ref="F15:F24"/>
     <mergeCell ref="F25:F34"/>
     <mergeCell ref="F35:F44"/>
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5433,19 +5434,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9CD3D2-D04C-674C-8A65-AE40D6B2D051}">
   <dimension ref="A1:L342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -5458,13 +5459,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -5477,7 +5478,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="G4" s="19" t="s">
         <v>23</v>
@@ -5487,15 +5488,15 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
@@ -5504,7 +5505,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -5528,7 +5529,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>35</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>36</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>37</v>
       </c>
@@ -6297,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>38</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>39</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>41</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>42</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>46</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>47</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>48</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>49</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>51</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>52</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>53</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>54</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>55</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>56</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>57</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>58</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>59</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>60</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>61</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>62</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>63</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>64</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>65</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>66</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>67</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>68</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>69</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>71</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>72</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>73</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>74</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>75</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>76</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>77</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>78</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>79</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>80</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>81</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>1.4730000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>82</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>83</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>84</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>85</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>86</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>87</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>88</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>89</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>1.482</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>90</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>91</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>1.7430000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>92</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>1.573</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>93</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>94</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>95</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>96</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>97</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>98</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>99</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>100</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>101</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>102</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>103</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>1.6559999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>104</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>105</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>106</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>107</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>108</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>109</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>110</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>111</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>112</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>113</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>114</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>115</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>116</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>117</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>118</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>119</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>120</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>121</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>122</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>123</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>124</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>125</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>1.766</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>126</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>127</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>1.3859999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>128</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>129</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>130</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>131</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>132</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>133</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>134</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>135</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>1.5760000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>136</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>1.7629999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>137</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>138</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>139</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>140</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>141</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>142</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>143</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>144</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>145</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>146</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>1.466</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>147</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>148</v>
       </c>
@@ -8328,7 +8329,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>149</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>1.589</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>150</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>151</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>152</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>153</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>154</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>155</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>156</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>157</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>158</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>159</v>
       </c>
@@ -8515,7 +8516,7 @@
         <v>1.772</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>160</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>1.679</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>161</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>162</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>163</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>164</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>165</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>166</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>167</v>
       </c>
@@ -8651,7 +8652,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>168</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>169</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>1.502</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>170</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>171</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>1.7430000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>172</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>173</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>174</v>
       </c>
@@ -8770,7 +8771,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>175</v>
       </c>
@@ -8787,7 +8788,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>176</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>177</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>178</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>179</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>180</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>181</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>182</v>
       </c>
@@ -8906,7 +8907,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>183</v>
       </c>
@@ -8923,7 +8924,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>184</v>
       </c>
@@ -8940,7 +8941,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>185</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>186</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>187</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>188</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>189</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>190</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>191</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>192</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>193</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>1.756</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>194</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>195</v>
       </c>
@@ -9127,7 +9128,7 @@
         <v>1.5209999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>196</v>
       </c>
@@ -9144,7 +9145,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>197</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>198</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>199</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>200</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>201</v>
       </c>
@@ -9229,7 +9230,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>202</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>203</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>204</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>205</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>1.766</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>206</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>207</v>
       </c>
@@ -9331,7 +9332,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>208</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>209</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>210</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>211</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>212</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>213</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>214</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>215</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>216</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>217</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>218</v>
       </c>
@@ -9518,7 +9519,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>219</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>220</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>221</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>222</v>
       </c>
@@ -9586,7 +9587,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>223</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>224</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>225</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>226</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>1.466</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>227</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>228</v>
       </c>
@@ -9688,7 +9689,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>229</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>1.5920000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>230</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>231</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>232</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>233</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>234</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>235</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>236</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>237</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>238</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>239</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>240</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>1.673</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>241</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>242</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>243</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>244</v>
       </c>
@@ -9960,7 +9961,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>245</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>246</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>247</v>
       </c>
@@ -10011,7 +10012,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>248</v>
       </c>
@@ -10028,7 +10029,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>249</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>1.518</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>250</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>251</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>252</v>
       </c>
@@ -10096,7 +10097,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>253</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>254</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>255</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="20">
         <v>256</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>460084</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>461880</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>463680</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>465488</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>1.4530000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>467300</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>1.708</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>469092</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>470900</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>1.5860000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>472716</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>474532</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>476348</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>478156</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>479972</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>481776</v>
       </c>
@@ -10346,7 +10347,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>483584</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>485392</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>487196</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>488988</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>490804</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>492620</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>494428</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>496236</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>498052</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>499868</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>501676</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>503484</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>505288</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>507100</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>508900</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>510708</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>512524</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>514332</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>516140</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>517948</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>519764</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>521580</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>523396</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>525192</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>527000</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>528812</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>530612</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>532420</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>534236</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>536052</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>537860</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>539668</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D308">
         <v>489604</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D309">
         <v>491404</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D310">
         <v>493220</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D311">
         <v>495036</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D312">
         <v>496852</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D313">
         <v>498660</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D314">
         <v>500476</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D315">
         <v>502292</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D316">
         <v>504100</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D317">
         <v>505908</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D318">
         <v>507716</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D319">
         <v>509524</v>
       </c>
@@ -10890,7 +10891,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D320">
         <v>511332</v>
       </c>
@@ -10898,7 +10899,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D321">
         <v>513156</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D322">
         <v>514964</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D323">
         <v>516772</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D324">
         <v>518588</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D325">
         <v>520404</v>
       </c>
@@ -10938,7 +10939,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D326">
         <v>522212</v>
       </c>
@@ -10946,7 +10947,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D327">
         <v>524028</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D328">
         <v>525836</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D329">
         <v>527644</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D330">
         <v>529452</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D331">
         <v>531260</v>
       </c>
@@ -10986,7 +10987,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D332">
         <v>533076</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D333">
         <v>534892</v>
       </c>
@@ -11002,7 +11003,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D334">
         <v>536708</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D335">
         <v>538516</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D336">
         <v>540324</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D337">
         <v>538404</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D338">
         <v>540212</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D339">
         <v>534748</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D340">
         <v>536556</v>
       </c>
@@ -11058,7 +11059,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D341">
         <v>538364</v>
       </c>
@@ -11066,7 +11067,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D342">
         <v>540172</v>
       </c>
@@ -11085,41 +11086,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DF4A1-8070-4F58-A040-71BC06857F9D}">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23:P26"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="K1" s="44" t="s">
+      <c r="D1" s="49"/>
+      <c r="K1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -11132,22 +11133,22 @@
       <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="33" t="s">
         <v>53</v>
       </c>
       <c r="O2" s="50" t="s">
@@ -11158,17 +11159,17 @@
       <c r="R2" s="50"/>
       <c r="S2" s="50"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>0</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="35">
         <v>0.54800000000000004</v>
       </c>
       <c r="C3" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="35">
         <v>0.53800000000000003</v>
       </c>
       <c r="E3" t="b">
@@ -11195,23 +11196,23 @@
         <f>AVERAGE(D3:D73)</f>
         <v>1.1438028169014087</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1708</v>
       </c>
@@ -11244,8 +11245,8 @@
         <v>10</v>
       </c>
       <c r="O4">
-        <f>A14-A3</f>
-        <v>19240</v>
+        <f>A15-A3</f>
+        <v>21000</v>
       </c>
       <c r="P4">
         <f>A26-A14</f>
@@ -11264,7 +11265,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3412</v>
       </c>
@@ -11309,15 +11310,15 @@
         <v>21136</v>
       </c>
       <c r="R5">
-        <f>C50-C39</f>
-        <v>19352</v>
+        <f>C51-C39</f>
+        <v>21096</v>
       </c>
       <c r="S5">
         <f>C62-C50</f>
         <v>21304</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5156</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6908</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8676</v>
       </c>
@@ -11406,21 +11407,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
+    <row r="9" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
         <v>10428</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="36">
         <v>1.76</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="36">
         <v>10348</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="36">
         <v>1.7629999999999999</v>
       </c>
       <c r="E9" t="b">
@@ -11439,10 +11440,10 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="33" t="s">
         <v>47</v>
       </c>
       <c r="O9" s="50" t="s">
@@ -11453,7 +11454,7 @@
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12180</v>
       </c>
@@ -11490,29 +11491,38 @@
         <f>3.3/32/2</f>
         <v>5.1562499999999997E-2</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="45" t="s">
+      <c r="T10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="45" t="s">
+      <c r="U10" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13956</v>
       </c>
@@ -11546,7 +11556,7 @@
       </c>
       <c r="O11" s="21">
         <f>1/O4*10^6</f>
-        <v>51.975051975051976</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="P11" s="21">
         <f t="shared" ref="P11:S12" si="4">1/P4*10^6</f>
@@ -11566,14 +11576,26 @@
       </c>
       <c r="T11">
         <f>AVERAGE(O11:S11)</f>
-        <v>48.137355086620865</v>
+        <v>47.266154215419995</v>
       </c>
       <c r="U11">
         <f>_xlfn.STDEV.S(O11:S11)</f>
-        <v>2.161054639408043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.32649619124527945</v>
+      </c>
+      <c r="V11">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W11">
+        <f>V11*U11/SQRT(5)</f>
+        <v>0.40539856621991449</v>
+      </c>
+      <c r="X11">
+        <f>SQRT(W11^2+K10^2)</f>
+        <v>0.40575484900757797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15724</v>
       </c>
@@ -11619,7 +11641,7 @@
       </c>
       <c r="R12" s="21">
         <f t="shared" si="4"/>
-        <v>51.674245556014881</v>
+        <v>47.402351156617364</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="4"/>
@@ -11627,14 +11649,26 @@
       </c>
       <c r="T12">
         <f>AVERAGE(O12:S12)</f>
-        <v>48.226049057914587</v>
+        <v>47.371670178035082</v>
       </c>
       <c r="U12">
         <f>_xlfn.STDEV.S(O12:S12)</f>
-        <v>1.9527680103697815</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.31297539857941931</v>
+      </c>
+      <c r="V12">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W12">
+        <f>V12*U12/SQRT(5)</f>
+        <v>0.38861028473953846</v>
+      </c>
+      <c r="X12">
+        <f>SQRT(W12^2+L10^2)</f>
+        <v>0.39201612825443183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17492</v>
       </c>
@@ -11664,11 +11698,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
         <v>19240</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="52">
         <v>0.71499999999999997</v>
       </c>
       <c r="C14">
@@ -11701,17 +11735,17 @@
       <c r="R14" s="50"/>
       <c r="S14" s="50"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>21000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="14">
         <v>0.53800000000000003</v>
       </c>
       <c r="C15" s="14">
         <v>20912</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="35">
         <v>0.53500000000000003</v>
       </c>
       <c r="E15" t="b">
@@ -11730,29 +11764,38 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="45" t="s">
+      <c r="P15" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S15" s="45" t="s">
+      <c r="S15" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="T15" s="45" t="s">
+      <c r="T15" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="45" t="s">
+      <c r="U15" s="34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22744</v>
       </c>
@@ -11812,8 +11855,20 @@
         <f>_xlfn.STDEV.S(O16:S16)</f>
         <v>0.12743037314549394</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W13:W17" si="5">V16*U16/SQRT(5)</f>
+        <v>0.15822570661243157</v>
+      </c>
+      <c r="X16">
+        <f>SQRT(K10^2+W16^2)</f>
+        <v>0.15913633850570796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24488</v>
       </c>
@@ -11873,8 +11928,20 @@
         <f>_xlfn.STDEV.S(O17:S17)</f>
         <v>1.7213366899011869E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="5"/>
+        <v>2.1373217966375407E-2</v>
+      </c>
+      <c r="X17">
+        <f>SQRT(W17^2+L10^2)</f>
+        <v>5.5816716604330928E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26252</v>
       </c>
@@ -11904,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28020</v>
       </c>
@@ -11934,11 +12001,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
         <v>29788</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="37">
         <v>1.6240000000000001</v>
       </c>
       <c r="C20">
@@ -11964,17 +12031,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31556</v>
       </c>
       <c r="B21">
         <v>1.772</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="37">
         <v>31444</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="37">
         <v>1.772</v>
       </c>
       <c r="E21" t="b">
@@ -11994,7 +12061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33324</v>
       </c>
@@ -12024,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>35100</v>
       </c>
@@ -12053,11 +12120,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="44" t="s">
+      <c r="N23" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36860</v>
       </c>
@@ -12086,17 +12153,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="44" t="s">
+      <c r="P24" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38628</v>
       </c>
@@ -12125,12 +12192,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="44" t="s">
+      <c r="M25" s="33" t="s">
         <v>63</v>
       </c>
       <c r="N25">
         <f>T11</f>
-        <v>48.137355086620865</v>
+        <v>47.266154215419995</v>
       </c>
       <c r="O25">
         <f>T16</f>
@@ -12141,11 +12208,11 @@
         <v>1.1345277777777776</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>40384</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="35">
         <v>0.65700000000000003</v>
       </c>
       <c r="C26">
@@ -12170,12 +12237,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M26" s="44" t="s">
+      <c r="M26" s="33" t="s">
         <v>64</v>
       </c>
       <c r="N26">
         <f>T12</f>
-        <v>48.226049057914587</v>
+        <v>47.371670178035082</v>
       </c>
       <c r="O26">
         <f>T17</f>
@@ -12186,7 +12253,7 @@
         <v>1.1438028169014087</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>42132</v>
       </c>
@@ -12196,7 +12263,7 @@
       <c r="C27" s="14">
         <v>42016</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="35">
         <v>0.53500000000000003</v>
       </c>
       <c r="E27" t="b">
@@ -12216,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>43880</v>
       </c>
@@ -12246,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>45644</v>
       </c>
@@ -12276,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>47404</v>
       </c>
@@ -12306,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>49172</v>
       </c>
@@ -12336,11 +12403,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="48">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
         <v>50940</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="37">
         <v>1.6850000000000001</v>
       </c>
       <c r="C32">
@@ -12366,17 +12433,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>52708</v>
       </c>
       <c r="B33">
         <v>1.766</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="37">
         <v>52580</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="37">
         <v>1.7629999999999999</v>
       </c>
       <c r="E33" t="b">
@@ -12396,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>54476</v>
       </c>
@@ -12426,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56228</v>
       </c>
@@ -12456,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>57996</v>
       </c>
@@ -12486,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>59764</v>
       </c>
@@ -12516,11 +12583,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>61512</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="35">
         <v>0.59899999999999998</v>
       </c>
       <c r="C38">
@@ -12546,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>63264</v>
       </c>
@@ -12556,7 +12623,7 @@
       <c r="C39" s="14">
         <v>63152</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="35">
         <v>0.55100000000000005</v>
       </c>
       <c r="E39" t="b">
@@ -12576,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>65024</v>
       </c>
@@ -12606,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>66772</v>
       </c>
@@ -12636,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>68524</v>
       </c>
@@ -12666,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>70292</v>
       </c>
@@ -12696,17 +12763,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="48">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
         <v>72060</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="37">
         <v>1.7310000000000001</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="37">
         <v>71948</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="37">
         <v>1.7430000000000001</v>
       </c>
       <c r="E44" t="b">
@@ -12726,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>73828</v>
       </c>
@@ -12756,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>75596</v>
       </c>
@@ -12786,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>77364</v>
       </c>
@@ -12816,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>79132</v>
       </c>
@@ -12846,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>80880</v>
       </c>
@@ -12876,17 +12943,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>82628</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="35">
         <v>0.56100000000000005</v>
       </c>
       <c r="C50" s="14">
         <v>82504</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="35">
         <v>0.55100000000000005</v>
       </c>
       <c r="E50" t="b">
@@ -12906,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>84388</v>
       </c>
@@ -12928,15 +12995,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <f t="shared" ref="G51:G73" si="5">B51&gt;1.7</f>
+        <f t="shared" ref="G51:G73" si="6">B51&gt;1.7</f>
         <v>0</v>
       </c>
       <c r="H51" t="b">
-        <f t="shared" ref="H51:H73" si="6">D51&gt;1.7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H51:H73" si="7">D51&gt;1.7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>86132</v>
       </c>
@@ -12958,15 +13025,15 @@
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H52" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>87884</v>
       </c>
@@ -12988,15 +13055,15 @@
         <v>0</v>
       </c>
       <c r="G53" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H53" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>89636</v>
       </c>
@@ -13018,15 +13085,15 @@
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H54" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>91420</v>
       </c>
@@ -13048,25 +13115,25 @@
         <v>0</v>
       </c>
       <c r="G55" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H55" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
         <v>93172</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="37">
         <v>1.76</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="37">
         <v>93060</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="37">
         <v>1.766</v>
       </c>
       <c r="E56" t="b">
@@ -13078,15 +13145,15 @@
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H56" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H56" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>94980</v>
       </c>
@@ -13108,15 +13175,15 @@
         <v>0</v>
       </c>
       <c r="G57" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H57" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>96796</v>
       </c>
@@ -13138,15 +13205,15 @@
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H58" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>98612</v>
       </c>
@@ -13168,15 +13235,15 @@
         <v>0</v>
       </c>
       <c r="G59" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>100420</v>
       </c>
@@ -13198,15 +13265,15 @@
         <v>0</v>
       </c>
       <c r="G60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H60" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>102224</v>
       </c>
@@ -13228,15 +13295,15 @@
         <v>0</v>
       </c>
       <c r="G61" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H61" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>104028</v>
       </c>
@@ -13258,363 +13325,363 @@
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H62" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="38">
+        <v>105832</v>
+      </c>
+      <c r="B63" s="38">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C63" s="38">
+        <v>105616</v>
+      </c>
+      <c r="D63" s="38">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="E63" s="38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="38" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="49">
-        <v>105832</v>
-      </c>
-      <c r="B63" s="49">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C63" s="49">
-        <v>105616</v>
-      </c>
-      <c r="D63" s="49">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="E63" s="49" t="b">
+      <c r="H63" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="38">
+        <v>107636</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="C64" s="38">
+        <v>107420</v>
+      </c>
+      <c r="D64" s="38">
+        <v>0.87</v>
+      </c>
+      <c r="E64" s="38" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F63" s="49" t="b">
+      <c r="F64" s="38" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="49" t="b">
+      <c r="G64" s="38" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="49">
-        <v>107636</v>
-      </c>
-      <c r="B64" s="49">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="C64" s="49">
-        <v>107420</v>
-      </c>
-      <c r="D64" s="49">
-        <v>0.87</v>
-      </c>
-      <c r="E64" s="49" t="b">
+      <c r="H64" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="38">
+        <v>109444</v>
+      </c>
+      <c r="B65" s="38">
+        <v>1.131</v>
+      </c>
+      <c r="C65" s="38">
+        <v>109220</v>
+      </c>
+      <c r="D65" s="38">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E65" s="38" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F64" s="49" t="b">
+      <c r="F65" s="38" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="49" t="b">
+      <c r="G65" s="38" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="49">
-        <v>109444</v>
-      </c>
-      <c r="B65" s="49">
-        <v>1.131</v>
-      </c>
-      <c r="C65" s="49">
-        <v>109220</v>
-      </c>
-      <c r="D65" s="49">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E65" s="49" t="b">
+      <c r="H65" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="38">
+        <v>111260</v>
+      </c>
+      <c r="B66" s="38">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="C66" s="38">
+        <v>111020</v>
+      </c>
+      <c r="D66" s="38">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="E66" s="38" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F65" s="49" t="b">
+      <c r="F66" s="38" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="49" t="b">
+      <c r="G66" s="38" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="49">
-        <v>111260</v>
-      </c>
-      <c r="B66" s="49">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="C66" s="49">
-        <v>111020</v>
-      </c>
-      <c r="D66" s="49">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="E66" s="49" t="b">
+      <c r="H66" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="38">
+        <v>113076</v>
+      </c>
+      <c r="B67" s="38">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C67" s="38">
+        <v>112836</v>
+      </c>
+      <c r="D67" s="38">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="E67" s="38" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F66" s="49" t="b">
+      <c r="F67" s="38" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="49" t="b">
+      <c r="G67" s="38" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="49">
-        <v>113076</v>
-      </c>
-      <c r="B67" s="49">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="C67" s="49">
-        <v>112836</v>
-      </c>
-      <c r="D67" s="49">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="E67" s="49" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="49" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="49" t="b">
+      <c r="H67" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="38">
+        <v>114884</v>
+      </c>
+      <c r="B68" s="38">
+        <v>1.766</v>
+      </c>
+      <c r="C68" s="38">
+        <v>114652</v>
+      </c>
+      <c r="D68" s="38">
+        <v>1.76</v>
+      </c>
+      <c r="E68" s="38" t="b">
+        <f t="shared" ref="E68:E74" si="8">B68&lt;0.6</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="38" t="b">
+        <f t="shared" ref="F68:F73" si="9">D68&lt;0.6</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="38" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="49">
-        <v>114884</v>
-      </c>
-      <c r="B68" s="49">
-        <v>1.766</v>
-      </c>
-      <c r="C68" s="49">
-        <v>114652</v>
-      </c>
-      <c r="D68" s="49">
-        <v>1.76</v>
-      </c>
-      <c r="E68" s="49" t="b">
-        <f t="shared" ref="E68:E74" si="7">B68&lt;0.6</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="49" t="b">
-        <f t="shared" ref="F68:F73" si="8">D68&lt;0.6</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H68" s="49" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="49">
-        <v>116692</v>
-      </c>
-      <c r="B69" s="49">
-        <v>1.6240000000000001</v>
-      </c>
-      <c r="C69" s="49">
-        <v>116460</v>
-      </c>
-      <c r="D69" s="49">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="E69" s="49" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="49" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="49" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="49">
-        <v>118508</v>
-      </c>
-      <c r="B70" s="49">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="C70" s="49">
-        <v>118260</v>
-      </c>
-      <c r="D70" s="49">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="E70" s="49" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="49" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="49" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="49">
-        <v>120324</v>
-      </c>
-      <c r="B71" s="49">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="C71" s="49">
-        <v>120076</v>
-      </c>
-      <c r="D71" s="49">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="E71" s="49" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="49" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="49" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="49">
-        <v>122140</v>
-      </c>
-      <c r="B72" s="49">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="C72" s="49">
-        <v>121880</v>
-      </c>
-      <c r="D72" s="49">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="E72" s="49" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="49" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="49" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="49">
-        <v>123920</v>
-      </c>
-      <c r="B73" s="49">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C73" s="49">
-        <v>123688</v>
-      </c>
-      <c r="D73" s="49">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="E73" s="49" t="b">
+      <c r="H68" s="38" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F73" s="49" t="b">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="38">
+        <v>116692</v>
+      </c>
+      <c r="B69" s="38">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="C69" s="38">
+        <v>116460</v>
+      </c>
+      <c r="D69" s="38">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="E69" s="38" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="38" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="38" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="38">
+        <v>118508</v>
+      </c>
+      <c r="B70" s="38">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="C70" s="38">
+        <v>118260</v>
+      </c>
+      <c r="D70" s="38">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="E70" s="38" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="38" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="38" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="38">
+        <v>120324</v>
+      </c>
+      <c r="B71" s="38">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="C71" s="38">
+        <v>120076</v>
+      </c>
+      <c r="D71" s="38">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="E71" s="38" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="38" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="38" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="38">
+        <v>122140</v>
+      </c>
+      <c r="B72" s="38">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C72" s="38">
+        <v>121880</v>
+      </c>
+      <c r="D72" s="38">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E72" s="38" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="38" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="38" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="38">
+        <v>123920</v>
+      </c>
+      <c r="B73" s="38">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C73" s="38">
+        <v>123688</v>
+      </c>
+      <c r="D73" s="38">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E73" s="38" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G73" s="49" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="49" t="b">
+      <c r="F73" s="38" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="38" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="49">
+      <c r="H73" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="38">
         <v>125712</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="38">
         <v>0.55800000000000005</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49" t="b">
-        <f t="shared" si="7"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49" t="b">
+      <c r="F74" s="38"/>
+      <c r="G74" s="38" t="b">
         <f>B74&gt;1.7</f>
         <v>0</v>
       </c>
-      <c r="H74" s="49"/>
+      <c r="H74" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13623,12 +13690,7 @@
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="O14:S14"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1048576">
+  <conditionalFormatting sqref="E1:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/Lab 2/02_Digital_Data_Collection_Tables.xlsx
+++ b/Lab 2/02_Digital_Data_Collection_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\Year 3\MEC-E-301\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AC6F3-9E64-4C9D-8149-3BD75A00DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10D18E-90D2-4365-B118-88B7F6087065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -271,6 +271,15 @@
   <si>
     <t>U_x</t>
   </si>
+  <si>
+    <t>Uncertanties</t>
+  </si>
+  <si>
+    <t>B_x</t>
+  </si>
+  <si>
+    <t>Oscilloscope</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -480,6 +489,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,26 +519,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B5DFEB-27AC-C14C-9885-2E931D118C39}">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1000,7 +1008,7 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="39">
+      <c r="A5" s="43">
         <v>0.10199999999999999</v>
       </c>
       <c r="B5">
@@ -1026,7 +1034,7 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
+      <c r="A6" s="44"/>
       <c r="B6">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1050,7 +1058,7 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="44"/>
       <c r="B7">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1074,7 +1082,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1098,7 +1106,7 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
+      <c r="A9" s="44"/>
       <c r="B9">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1122,7 +1130,7 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
+      <c r="A10" s="44"/>
       <c r="B10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1146,7 +1154,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
+      <c r="A11" s="44"/>
       <c r="B11">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1170,7 +1178,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
       <c r="B12">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1194,7 +1202,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
+      <c r="A13" s="44"/>
       <c r="B13">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -1218,7 +1226,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1242,7 +1250,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="42">
+      <c r="A15" s="46">
         <v>1.024</v>
       </c>
       <c r="B15">
@@ -1257,7 +1265,7 @@
       <c r="E15" s="2">
         <v>1.016</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="39"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
@@ -1265,7 +1273,7 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
+      <c r="A16" s="47"/>
       <c r="B16">
         <v>1.0249999999999999</v>
       </c>
@@ -1278,7 +1286,7 @@
       <c r="E16" s="2">
         <v>1.016</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="40"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
@@ -1286,7 +1294,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="47"/>
       <c r="B17">
         <v>1.0249999999999999</v>
       </c>
@@ -1299,7 +1307,7 @@
       <c r="E17" s="2">
         <v>1.016</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="40"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
@@ -1307,7 +1315,7 @@
       <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
+      <c r="A18" s="47"/>
       <c r="B18">
         <v>1.0249999999999999</v>
       </c>
@@ -1320,7 +1328,7 @@
       <c r="E18" s="2">
         <v>1.016</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="40"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
@@ -1328,7 +1336,7 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
+      <c r="A19" s="47"/>
       <c r="B19">
         <v>1.0249999999999999</v>
       </c>
@@ -1341,7 +1349,7 @@
       <c r="E19" s="2">
         <v>1.016</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="40"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="16"/>
@@ -1349,7 +1357,7 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
+      <c r="A20" s="47"/>
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
@@ -1362,7 +1370,7 @@
       <c r="E20" s="2">
         <v>1.016</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="40"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="16"/>
@@ -1370,7 +1378,7 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
+      <c r="A21" s="47"/>
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
@@ -1383,7 +1391,7 @@
       <c r="E21" s="2">
         <v>1.016</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="40"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="16"/>
@@ -1391,7 +1399,7 @@
       <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
+      <c r="A22" s="47"/>
       <c r="B22">
         <v>1.0249999999999999</v>
       </c>
@@ -1404,7 +1412,7 @@
       <c r="E22" s="2">
         <v>1.016</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="40"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="16"/>
@@ -1412,7 +1420,7 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
+      <c r="A23" s="47"/>
       <c r="B23">
         <v>1.0249999999999999</v>
       </c>
@@ -1425,7 +1433,7 @@
       <c r="E23" s="2">
         <v>1.016</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="40"/>
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="16"/>
@@ -1433,7 +1441,7 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="10">
         <v>1.0249999999999999</v>
       </c>
@@ -1446,7 +1454,7 @@
       <c r="E24" s="2">
         <v>1.016</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="41"/>
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="16"/>
@@ -1454,7 +1462,7 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="39">
+      <c r="A25" s="43">
         <v>1.8</v>
       </c>
       <c r="B25">
@@ -1469,7 +1477,7 @@
       <c r="E25" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="39"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -1477,7 +1485,7 @@
       <c r="S25" s="16"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
+      <c r="A26" s="44"/>
       <c r="B26">
         <v>1.821</v>
       </c>
@@ -1490,7 +1498,7 @@
       <c r="E26" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="40"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -1498,7 +1506,7 @@
       <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
+      <c r="A27" s="44"/>
       <c r="B27">
         <v>1.8120000000000001</v>
       </c>
@@ -1511,7 +1519,7 @@
       <c r="E27" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="40"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -1519,7 +1527,7 @@
       <c r="S27" s="16"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="44"/>
       <c r="B28">
         <v>1.8160000000000001</v>
       </c>
@@ -1532,7 +1540,7 @@
       <c r="E28" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="40"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
@@ -1540,7 +1548,7 @@
       <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
+      <c r="A29" s="44"/>
       <c r="B29">
         <v>1.8120000000000001</v>
       </c>
@@ -1553,7 +1561,7 @@
       <c r="E29" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="40"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
@@ -1561,7 +1569,7 @@
       <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
+      <c r="A30" s="44"/>
       <c r="B30">
         <v>1.8120000000000001</v>
       </c>
@@ -1574,7 +1582,7 @@
       <c r="E30" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F30" s="46"/>
+      <c r="F30" s="40"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
@@ -1582,7 +1590,7 @@
       <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
+      <c r="A31" s="44"/>
       <c r="B31">
         <v>1.8160000000000001</v>
       </c>
@@ -1595,7 +1603,7 @@
       <c r="E31" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="40"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
@@ -1603,7 +1611,7 @@
       <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
+      <c r="A32" s="44"/>
       <c r="B32">
         <v>1.8160000000000001</v>
       </c>
@@ -1616,7 +1624,7 @@
       <c r="E32" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="40"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
@@ -1624,7 +1632,7 @@
       <c r="S32" s="16"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
+      <c r="A33" s="44"/>
       <c r="B33">
         <v>1.8120000000000001</v>
       </c>
@@ -1637,7 +1645,7 @@
       <c r="E33" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="40"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
@@ -1645,7 +1653,7 @@
       <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="10">
         <v>1.8160000000000001</v>
       </c>
@@ -1658,7 +1666,7 @@
       <c r="E34" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F34" s="47"/>
+      <c r="F34" s="41"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -1666,7 +1674,7 @@
       <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="39">
+      <c r="A35" s="43">
         <v>2.5</v>
       </c>
       <c r="B35" s="21">
@@ -1681,14 +1689,14 @@
       <c r="E35" s="22">
         <v>2.5</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="39"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="21">
         <v>2.524</v>
       </c>
@@ -1701,14 +1709,14 @@
       <c r="E36" s="12">
         <v>2.5</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="40"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="21">
         <v>2.4950000000000001</v>
       </c>
@@ -1721,14 +1729,14 @@
       <c r="E37" s="12">
         <v>2.5</v>
       </c>
-      <c r="F37" s="46"/>
+      <c r="F37" s="40"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="21">
         <v>2.524</v>
       </c>
@@ -1741,14 +1749,14 @@
       <c r="E38" s="12">
         <v>2.5</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="40"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="21">
         <v>2.5099999999999998</v>
       </c>
@@ -1761,14 +1769,14 @@
       <c r="E39" s="12">
         <v>2.5</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="40"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="21">
         <v>2.52</v>
       </c>
@@ -1781,14 +1789,14 @@
       <c r="E40" s="12">
         <v>2.5</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="40"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="21">
         <v>2.5539999999999998</v>
       </c>
@@ -1801,14 +1809,14 @@
       <c r="E41" s="12">
         <v>2.5</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="40"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="21">
         <v>2.524</v>
       </c>
@@ -1821,14 +1829,14 @@
       <c r="E42" s="12">
         <v>2.5</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="40"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="21">
         <v>2.5339999999999998</v>
       </c>
@@ -1841,14 +1849,14 @@
       <c r="E43" s="12">
         <v>2.5</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="40"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="13">
         <v>2.52</v>
       </c>
@@ -1861,7 +1869,7 @@
       <c r="E44" s="13">
         <v>2.5</v>
       </c>
-      <c r="F44" s="47"/>
+      <c r="F44" s="41"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -1873,20 +1881,20 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48" t="s">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="93" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
@@ -2374,7 +2382,7 @@
       <c r="E62" s="2">
         <v>1.016</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2409,7 +2417,7 @@
       <c r="E63" s="2">
         <v>1.016</v>
       </c>
-      <c r="F63" s="46"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2444,7 +2452,7 @@
       <c r="E64" s="2">
         <v>1.016</v>
       </c>
-      <c r="F64" s="46"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2479,7 +2487,7 @@
       <c r="E65" s="2">
         <v>1.016</v>
       </c>
-      <c r="F65" s="46"/>
+      <c r="F65" s="40"/>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2514,7 +2522,7 @@
       <c r="E66" s="2">
         <v>1.016</v>
       </c>
-      <c r="F66" s="46"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2549,7 +2557,7 @@
       <c r="E67" s="2">
         <v>1.016</v>
       </c>
-      <c r="F67" s="46"/>
+      <c r="F67" s="40"/>
       <c r="G67" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2584,7 +2592,7 @@
       <c r="E68" s="2">
         <v>1.016</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2619,7 +2627,7 @@
       <c r="E69" s="2">
         <v>1.016</v>
       </c>
-      <c r="F69" s="46"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2654,7 +2662,7 @@
       <c r="E70" s="2">
         <v>1.016</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="40"/>
       <c r="G70" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2689,7 +2697,7 @@
       <c r="E71" s="2">
         <v>1.016</v>
       </c>
-      <c r="F71" s="47"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2724,7 +2732,7 @@
       <c r="E72" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F72" s="45"/>
+      <c r="F72" s="39"/>
       <c r="G72" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2759,7 +2767,7 @@
       <c r="E73" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="21">
         <f t="shared" si="1"/>
         <v>2.0999999999999908E-2</v>
@@ -2794,7 +2802,7 @@
       <c r="E74" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F74" s="46"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2829,7 +2837,7 @@
       <c r="E75" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F75" s="46"/>
+      <c r="F75" s="40"/>
       <c r="G75" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2864,7 +2872,7 @@
       <c r="E76" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F76" s="46"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2899,7 +2907,7 @@
       <c r="E77" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F77" s="46"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2934,7 +2942,7 @@
       <c r="E78" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F78" s="46"/>
+      <c r="F78" s="40"/>
       <c r="G78" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2969,7 +2977,7 @@
       <c r="E79" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F79" s="46"/>
+      <c r="F79" s="40"/>
       <c r="G79" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3022,7 +3030,7 @@
       <c r="E80" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F80" s="46"/>
+      <c r="F80" s="40"/>
       <c r="G80" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -3075,7 +3083,7 @@
       <c r="E81" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F81" s="47"/>
+      <c r="F81" s="41"/>
       <c r="G81" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3128,7 +3136,7 @@
       <c r="E82" s="22">
         <v>2.5</v>
       </c>
-      <c r="F82" s="45"/>
+      <c r="F82" s="39"/>
       <c r="G82" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3181,7 +3189,7 @@
       <c r="E83" s="12">
         <v>2.5</v>
       </c>
-      <c r="F83" s="46"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3234,7 +3242,7 @@
       <c r="E84" s="12">
         <v>2.5</v>
       </c>
-      <c r="F84" s="46"/>
+      <c r="F84" s="40"/>
       <c r="G84" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3287,7 +3295,7 @@
       <c r="E85" s="12">
         <v>2.5</v>
       </c>
-      <c r="F85" s="46"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3340,7 +3348,7 @@
       <c r="E86" s="12">
         <v>2.5</v>
       </c>
-      <c r="F86" s="46"/>
+      <c r="F86" s="40"/>
       <c r="G86" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
@@ -3393,7 +3401,7 @@
       <c r="E87" s="12">
         <v>2.5</v>
       </c>
-      <c r="F87" s="46"/>
+      <c r="F87" s="40"/>
       <c r="G87" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3446,7 +3454,7 @@
       <c r="E88" s="12">
         <v>2.5</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="21">
         <f t="shared" si="1"/>
         <v>5.3999999999999826E-2</v>
@@ -3499,7 +3507,7 @@
       <c r="E89" s="12">
         <v>2.5</v>
       </c>
-      <c r="F89" s="46"/>
+      <c r="F89" s="40"/>
       <c r="G89" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3549,7 +3557,7 @@
       <c r="E90" s="12">
         <v>2.5</v>
       </c>
-      <c r="F90" s="46"/>
+      <c r="F90" s="40"/>
       <c r="G90" s="21">
         <f t="shared" si="1"/>
         <v>3.3999999999999808E-2</v>
@@ -3599,7 +3607,7 @@
       <c r="E91" s="13">
         <v>2.5</v>
       </c>
-      <c r="F91" s="47"/>
+      <c r="F91" s="41"/>
       <c r="G91" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -5412,11 +5420,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F81"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A25:A34"/>
@@ -5424,6 +5427,11 @@
     <mergeCell ref="F15:F24"/>
     <mergeCell ref="F25:F34"/>
     <mergeCell ref="F35:F44"/>
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5434,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9CD3D2-D04C-674C-8A65-AE40D6B2D051}">
   <dimension ref="A1:L342"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11088,8 +11096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DF4A1-8070-4F58-A040-71BC06857F9D}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11100,8 +11108,11 @@
     <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.54296875" customWidth="1"/>
     <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.25">
@@ -11249,16 +11260,16 @@
         <v>21000</v>
       </c>
       <c r="P4">
-        <f>A26-A14</f>
-        <v>21144</v>
+        <f>A27-A15</f>
+        <v>21132</v>
       </c>
       <c r="Q4">
-        <f>A38-A26</f>
-        <v>21128</v>
+        <f>A39-A27</f>
+        <v>21132</v>
       </c>
       <c r="R4">
-        <f>A50-A38</f>
-        <v>21116</v>
+        <f>A51-A39</f>
+        <v>21124</v>
       </c>
       <c r="S4">
         <f>A62-A50</f>
@@ -11483,11 +11494,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="51">
         <f>'Analog Voltage'!N101</f>
         <v>1.6999999999999904E-2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="51">
         <f>3.3/32/2</f>
         <v>5.1562499999999997E-2</v>
       </c>
@@ -11518,9 +11529,7 @@
       <c r="W10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="34" t="s">
-        <v>70</v>
-      </c>
+      <c r="X10" s="34"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -11560,15 +11569,15 @@
       </c>
       <c r="P11" s="21">
         <f t="shared" ref="P11:S12" si="4">1/P4*10^6</f>
-        <v>47.294740824820281</v>
+        <v>47.321597577134206</v>
       </c>
       <c r="Q11" s="21">
         <f t="shared" si="4"/>
-        <v>47.330556607345699</v>
+        <v>47.321597577134206</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="4"/>
-        <v>47.357454063269557</v>
+        <v>47.339519030486649</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="4"/>
@@ -11576,23 +11585,19 @@
       </c>
       <c r="T11">
         <f>AVERAGE(O11:S11)</f>
-        <v>47.266154215419995</v>
-      </c>
-      <c r="U11">
+        <v>47.266146753283905</v>
+      </c>
+      <c r="U11" s="51">
         <f>_xlfn.STDEV.S(O11:S11)</f>
-        <v>0.32649619124527945</v>
+        <v>0.32581776178497363</v>
       </c>
       <c r="V11">
         <f>-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="25">
         <f>V11*U11/SQRT(5)</f>
-        <v>0.40539856621991449</v>
-      </c>
-      <c r="X11">
-        <f>SQRT(W11^2+K10^2)</f>
-        <v>0.40575484900757797</v>
+        <v>0.40455618478373195</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -11651,7 +11656,7 @@
         <f>AVERAGE(O12:S12)</f>
         <v>47.371670178035082</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="51">
         <f>_xlfn.STDEV.S(O12:S12)</f>
         <v>0.31297539857941931</v>
       </c>
@@ -11659,13 +11664,9 @@
         <f>-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="25">
         <f>V12*U12/SQRT(5)</f>
         <v>0.38861028473953846</v>
-      </c>
-      <c r="X12">
-        <f>SQRT(W12^2+L10^2)</f>
-        <v>0.39201612825443183</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -11699,10 +11700,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14">
         <v>19240</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="33">
         <v>0.71499999999999997</v>
       </c>
       <c r="C14">
@@ -11832,16 +11833,16 @@
         <v>1.212</v>
       </c>
       <c r="P16">
-        <f>B20-B14</f>
-        <v>0.90900000000000014</v>
+        <f>B21-B15</f>
+        <v>1.234</v>
       </c>
       <c r="Q16">
-        <f>B32-B26</f>
-        <v>1.028</v>
+        <f>B33-B27</f>
+        <v>1.234</v>
       </c>
       <c r="R16">
-        <f>B44-B38</f>
-        <v>1.1320000000000001</v>
+        <f>B45-B39</f>
+        <v>1.206</v>
       </c>
       <c r="S16">
         <f>B56-B50</f>
@@ -11849,23 +11850,23 @@
       </c>
       <c r="T16">
         <f>AVERAGE(O16:S16)</f>
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="U16">
+        <v>1.2169999999999999</v>
+      </c>
+      <c r="U16" s="25">
         <f>_xlfn.STDEV.S(O16:S16)</f>
-        <v>0.12743037314549394</v>
+        <v>1.618641405623869E-2</v>
       </c>
       <c r="V16">
         <f>-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W16">
-        <f t="shared" ref="W13:W17" si="5">V16*U16/SQRT(5)</f>
-        <v>0.15822570661243157</v>
-      </c>
-      <c r="X16">
+      <c r="W16" s="25">
+        <f t="shared" ref="W16:W17" si="5">V16*U16/SQRT(5)</f>
+        <v>2.0098087593650941E-2</v>
+      </c>
+      <c r="X16" s="25">
         <f>SQRT(K10^2+W16^2)</f>
-        <v>0.15913633850570796</v>
+        <v>2.6323622944459273E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -11920,11 +11921,11 @@
         <f>D56-D50</f>
         <v>1.2149999999999999</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="21">
         <f>AVERAGE(O17:S17)</f>
         <v>1.2193999999999998</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="25">
         <f>_xlfn.STDEV.S(O17:S17)</f>
         <v>1.7213366899011869E-2</v>
       </c>
@@ -11932,11 +11933,11 @@
         <f>-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="25">
         <f t="shared" si="5"/>
         <v>2.1373217966375407E-2</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="25">
         <f>SQRT(W17^2+L10^2)</f>
         <v>5.5816716604330928E-2</v>
       </c>
@@ -12000,12 +12001,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20">
         <v>29788</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20">
         <v>1.6240000000000001</v>
       </c>
       <c r="C20">
@@ -12030,12 +12034,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T20" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="37">
         <v>31556</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="37">
         <v>1.772</v>
       </c>
       <c r="C21" s="37">
@@ -12060,6 +12070,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="T21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U21" t="s">
+        <v>69</v>
+      </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -12090,6 +12112,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="S22" t="s">
+        <v>63</v>
+      </c>
+      <c r="T22" s="25">
+        <f>W11</f>
+        <v>0.40455618478373195</v>
+      </c>
+      <c r="U22" s="25">
+        <f>W16</f>
+        <v>2.0098087593650941E-2</v>
+      </c>
+      <c r="V22" s="51">
+        <f>K10*SQRT(2)</f>
+        <v>2.4041630560342482E-2</v>
+      </c>
+      <c r="W22" s="25">
+        <f>SQRT(U22^2+V22^2)</f>
+        <v>3.133581217907172E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -12123,6 +12164,25 @@
       <c r="N23" s="33" t="s">
         <v>62</v>
       </c>
+      <c r="S23" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="25">
+        <f>W12</f>
+        <v>0.38861028473953846</v>
+      </c>
+      <c r="U23" s="25">
+        <f>W17</f>
+        <v>2.1373217966375407E-2</v>
+      </c>
+      <c r="V23" s="51">
+        <f>L10*SQRT(2)</f>
+        <v>7.2920386809862708E-2</v>
+      </c>
+      <c r="W23" s="25">
+        <f>SQRT(U23^2+V23^2)</f>
+        <v>7.5988138934561314E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -12195,24 +12255,24 @@
       <c r="M25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="21">
         <f>T11</f>
-        <v>47.266154215419995</v>
+        <v>47.266146753283905</v>
       </c>
       <c r="O25">
         <f>T16</f>
-        <v>1.0960000000000001</v>
+        <v>1.2169999999999999</v>
       </c>
       <c r="P25" s="21">
         <f>K3</f>
         <v>1.1345277777777776</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>40384</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26">
         <v>0.65700000000000003</v>
       </c>
       <c r="C26">
@@ -12240,7 +12300,7 @@
       <c r="M26" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="21">
         <f>T12</f>
         <v>47.371670178035082</v>
       </c>
@@ -12253,11 +12313,11 @@
         <v>1.1438028169014087</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
         <v>42132</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="35">
         <v>0.53200000000000003</v>
       </c>
       <c r="C27" s="14">
@@ -12282,6 +12342,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="2">
+        <v>48.54</v>
+      </c>
+      <c r="O27" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -12404,10 +12476,10 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+      <c r="A32">
         <v>50940</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32">
         <v>1.6850000000000001</v>
       </c>
       <c r="C32">
@@ -12434,10 +12506,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="37">
         <v>52708</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="37">
         <v>1.766</v>
       </c>
       <c r="C33" s="37">
@@ -12583,11 +12655,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>61512</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38">
         <v>0.59899999999999998</v>
       </c>
       <c r="C38">
@@ -12614,10 +12686,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="14">
         <v>63264</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="35">
         <v>0.54100000000000004</v>
       </c>
       <c r="C39" s="14">
@@ -12764,10 +12836,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
+      <c r="A44">
         <v>72060</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44">
         <v>1.7310000000000001</v>
       </c>
       <c r="C44" s="37">
@@ -12794,10 +12866,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="37">
         <v>73828</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="37">
         <v>1.7470000000000001</v>
       </c>
       <c r="C45">

--- a/Lab 2/02_Digital_Data_Collection_Tables.xlsx
+++ b/Lab 2/02_Digital_Data_Collection_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\Year 3\MEC-E-301\Lab 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10D18E-90D2-4365-B118-88B7F6087065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A7EA7-16B3-40A2-B72E-76BA397FA4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="91">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -280,6 +280,57 @@
   <si>
     <t>Oscilloscope</t>
   </si>
+  <si>
+    <t>t-dist</t>
+  </si>
+  <si>
+    <t>Cycle 1</t>
+  </si>
+  <si>
+    <t>Cycle 2</t>
+  </si>
+  <si>
+    <t>Cycle 3</t>
+  </si>
+  <si>
+    <t>Cycle 4</t>
+  </si>
+  <si>
+    <t>Cycle 5</t>
+  </si>
+  <si>
+    <t>10-Bit</t>
+  </si>
+  <si>
+    <t>5-Bit</t>
+  </si>
+  <si>
+    <t>nominal value</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>10-Bit Trough</t>
+  </si>
+  <si>
+    <t>5-Bit Trough</t>
+  </si>
+  <si>
+    <t>10-Bit Peak</t>
+  </si>
+  <si>
+    <t>5-Bit Peak</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>Nominal Value</t>
+  </si>
+  <si>
+    <t>T INV</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,18 +540,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,13 +559,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,154 +812,154 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="8"/>
+    <col min="2" max="2" width="18.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -924,22 +977,22 @@
       <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="12" width="10.81640625" style="2"/>
+    <col min="8" max="12" width="10.85546875" style="2"/>
     <col min="13" max="13" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.81640625" style="2"/>
+    <col min="14" max="14" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -950,12 +1003,12 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -981,7 +1034,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1060,8 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="43">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>0.10199999999999999</v>
       </c>
       <c r="B5">
@@ -1033,8 +1086,8 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1057,8 +1110,8 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
       <c r="B7">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1081,8 +1134,8 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1105,8 +1158,8 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1129,8 +1182,8 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
       <c r="B10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1153,8 +1206,8 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
       <c r="B11">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1177,8 +1230,8 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
       <c r="B12">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1201,8 +1254,8 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
       <c r="B13">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -1225,8 +1278,8 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1249,8 +1302,8 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
         <v>1.024</v>
       </c>
       <c r="B15">
@@ -1265,15 +1318,15 @@
       <c r="E15" s="2">
         <v>1.016</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="46"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
       <c r="B16">
         <v>1.0249999999999999</v>
       </c>
@@ -1286,15 +1339,15 @@
       <c r="E16" s="2">
         <v>1.016</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="47"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
       <c r="B17">
         <v>1.0249999999999999</v>
       </c>
@@ -1307,15 +1360,15 @@
       <c r="E17" s="2">
         <v>1.016</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="47"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
       <c r="B18">
         <v>1.0249999999999999</v>
       </c>
@@ -1328,15 +1381,15 @@
       <c r="E18" s="2">
         <v>1.016</v>
       </c>
-      <c r="F18" s="40"/>
+      <c r="F18" s="47"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
       <c r="B19">
         <v>1.0249999999999999</v>
       </c>
@@ -1349,15 +1402,15 @@
       <c r="E19" s="2">
         <v>1.016</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="47"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
@@ -1370,15 +1423,15 @@
       <c r="E20" s="2">
         <v>1.016</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="47"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
@@ -1391,15 +1444,15 @@
       <c r="E21" s="2">
         <v>1.016</v>
       </c>
-      <c r="F21" s="40"/>
+      <c r="F21" s="47"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
       <c r="B22">
         <v>1.0249999999999999</v>
       </c>
@@ -1412,15 +1465,15 @@
       <c r="E22" s="2">
         <v>1.016</v>
       </c>
-      <c r="F22" s="40"/>
+      <c r="F22" s="47"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
       <c r="B23">
         <v>1.0249999999999999</v>
       </c>
@@ -1433,15 +1486,15 @@
       <c r="E23" s="2">
         <v>1.016</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="47"/>
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="48"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
       <c r="B24" s="10">
         <v>1.0249999999999999</v>
       </c>
@@ -1454,15 +1507,15 @@
       <c r="E24" s="2">
         <v>1.016</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="48"/>
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="43">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
         <v>1.8</v>
       </c>
       <c r="B25">
@@ -1477,15 +1530,15 @@
       <c r="E25" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="46"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
       <c r="B26">
         <v>1.821</v>
       </c>
@@ -1498,15 +1551,15 @@
       <c r="E26" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F26" s="40"/>
+      <c r="F26" s="47"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
       <c r="B27">
         <v>1.8120000000000001</v>
       </c>
@@ -1519,15 +1572,15 @@
       <c r="E27" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F27" s="40"/>
+      <c r="F27" s="47"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
       <c r="B28">
         <v>1.8160000000000001</v>
       </c>
@@ -1540,15 +1593,15 @@
       <c r="E28" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="47"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
       <c r="B29">
         <v>1.8120000000000001</v>
       </c>
@@ -1561,15 +1614,15 @@
       <c r="E29" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F29" s="40"/>
+      <c r="F29" s="47"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
       <c r="B30">
         <v>1.8120000000000001</v>
       </c>
@@ -1582,15 +1635,15 @@
       <c r="E30" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F30" s="40"/>
+      <c r="F30" s="47"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
       <c r="B31">
         <v>1.8160000000000001</v>
       </c>
@@ -1603,15 +1656,15 @@
       <c r="E31" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="47"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
       <c r="B32">
         <v>1.8160000000000001</v>
       </c>
@@ -1624,15 +1677,15 @@
       <c r="E32" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="47"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
       <c r="B33">
         <v>1.8120000000000001</v>
       </c>
@@ -1645,15 +1698,15 @@
       <c r="E33" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F33" s="40"/>
+      <c r="F33" s="47"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="10">
         <v>1.8160000000000001</v>
       </c>
@@ -1666,15 +1719,15 @@
       <c r="E34" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="48"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="43">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
         <v>2.5</v>
       </c>
       <c r="B35" s="21">
@@ -1689,14 +1742,14 @@
       <c r="E35" s="22">
         <v>2.5</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="46"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
       <c r="B36" s="21">
         <v>2.524</v>
       </c>
@@ -1709,14 +1762,14 @@
       <c r="E36" s="12">
         <v>2.5</v>
       </c>
-      <c r="F36" s="40"/>
+      <c r="F36" s="47"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
       <c r="B37" s="21">
         <v>2.4950000000000001</v>
       </c>
@@ -1729,14 +1782,14 @@
       <c r="E37" s="12">
         <v>2.5</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="47"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
       <c r="B38" s="21">
         <v>2.524</v>
       </c>
@@ -1749,14 +1802,14 @@
       <c r="E38" s="12">
         <v>2.5</v>
       </c>
-      <c r="F38" s="40"/>
+      <c r="F38" s="47"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="44"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
       <c r="B39" s="21">
         <v>2.5099999999999998</v>
       </c>
@@ -1769,14 +1822,14 @@
       <c r="E39" s="12">
         <v>2.5</v>
       </c>
-      <c r="F39" s="40"/>
+      <c r="F39" s="47"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
       <c r="B40" s="21">
         <v>2.52</v>
       </c>
@@ -1789,14 +1842,14 @@
       <c r="E40" s="12">
         <v>2.5</v>
       </c>
-      <c r="F40" s="40"/>
+      <c r="F40" s="47"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
       <c r="B41" s="21">
         <v>2.5539999999999998</v>
       </c>
@@ -1809,14 +1862,14 @@
       <c r="E41" s="12">
         <v>2.5</v>
       </c>
-      <c r="F41" s="40"/>
+      <c r="F41" s="47"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
       <c r="B42" s="21">
         <v>2.524</v>
       </c>
@@ -1829,14 +1882,14 @@
       <c r="E42" s="12">
         <v>2.5</v>
       </c>
-      <c r="F42" s="40"/>
+      <c r="F42" s="47"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
       <c r="B43" s="21">
         <v>2.5339999999999998</v>
       </c>
@@ -1849,14 +1902,14 @@
       <c r="E43" s="12">
         <v>2.5</v>
       </c>
-      <c r="F43" s="40"/>
+      <c r="F43" s="47"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="45"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="13">
         <v>2.52</v>
       </c>
@@ -1869,34 +1922,34 @@
       <c r="E44" s="13">
         <v>2.5</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="48"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="42" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42" t="s">
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -1966,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2006,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2046,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2086,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2126,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2166,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2206,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2246,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2286,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2326,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>0.10199999999999999</v>
       </c>
@@ -2366,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>1.024</v>
       </c>
@@ -2382,7 +2435,7 @@
       <c r="E62" s="2">
         <v>1.016</v>
       </c>
-      <c r="F62" s="39"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2401,7 +2454,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>1.024</v>
       </c>
@@ -2417,7 +2470,7 @@
       <c r="E63" s="2">
         <v>1.016</v>
       </c>
-      <c r="F63" s="40"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2436,7 +2489,7 @@
       </c>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>1.024</v>
       </c>
@@ -2452,7 +2505,7 @@
       <c r="E64" s="2">
         <v>1.016</v>
       </c>
-      <c r="F64" s="40"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2471,7 +2524,7 @@
       </c>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>1.024</v>
       </c>
@@ -2487,7 +2540,7 @@
       <c r="E65" s="2">
         <v>1.016</v>
       </c>
-      <c r="F65" s="40"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2506,7 +2559,7 @@
       </c>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>1.024</v>
       </c>
@@ -2522,7 +2575,7 @@
       <c r="E66" s="2">
         <v>1.016</v>
       </c>
-      <c r="F66" s="40"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2541,7 +2594,7 @@
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>1.024</v>
       </c>
@@ -2557,7 +2610,7 @@
       <c r="E67" s="2">
         <v>1.016</v>
       </c>
-      <c r="F67" s="40"/>
+      <c r="F67" s="47"/>
       <c r="G67" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2576,7 +2629,7 @@
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>1.024</v>
       </c>
@@ -2592,7 +2645,7 @@
       <c r="E68" s="2">
         <v>1.016</v>
       </c>
-      <c r="F68" s="40"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2611,7 +2664,7 @@
       </c>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>1.024</v>
       </c>
@@ -2627,7 +2680,7 @@
       <c r="E69" s="2">
         <v>1.016</v>
       </c>
-      <c r="F69" s="40"/>
+      <c r="F69" s="47"/>
       <c r="G69" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2646,7 +2699,7 @@
       </c>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>1.024</v>
       </c>
@@ -2662,7 +2715,7 @@
       <c r="E70" s="2">
         <v>1.016</v>
       </c>
-      <c r="F70" s="40"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2681,7 +2734,7 @@
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>1.024</v>
       </c>
@@ -2697,7 +2750,7 @@
       <c r="E71" s="2">
         <v>1.016</v>
       </c>
-      <c r="F71" s="41"/>
+      <c r="F71" s="48"/>
       <c r="G71" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2716,7 +2769,7 @@
       </c>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>1.8</v>
       </c>
@@ -2732,7 +2785,7 @@
       <c r="E72" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F72" s="39"/>
+      <c r="F72" s="46"/>
       <c r="G72" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2751,7 +2804,7 @@
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>1.8</v>
       </c>
@@ -2767,7 +2820,7 @@
       <c r="E73" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F73" s="40"/>
+      <c r="F73" s="47"/>
       <c r="G73" s="21">
         <f t="shared" si="1"/>
         <v>2.0999999999999908E-2</v>
@@ -2786,7 +2839,7 @@
       </c>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>1.8</v>
       </c>
@@ -2802,7 +2855,7 @@
       <c r="E74" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F74" s="40"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2821,7 +2874,7 @@
       </c>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>1.8</v>
       </c>
@@ -2837,7 +2890,7 @@
       <c r="E75" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F75" s="40"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2856,7 +2909,7 @@
       </c>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>1.8</v>
       </c>
@@ -2872,7 +2925,7 @@
       <c r="E76" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F76" s="40"/>
+      <c r="F76" s="47"/>
       <c r="G76" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2891,7 +2944,7 @@
       </c>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>1.8</v>
       </c>
@@ -2907,7 +2960,7 @@
       <c r="E77" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F77" s="40"/>
+      <c r="F77" s="47"/>
       <c r="G77" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2926,7 +2979,7 @@
       </c>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>1.8</v>
       </c>
@@ -2942,7 +2995,7 @@
       <c r="E78" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F78" s="40"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2961,7 +3014,7 @@
       </c>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>1.8</v>
       </c>
@@ -2977,7 +3030,7 @@
       <c r="E79" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F79" s="40"/>
+      <c r="F79" s="47"/>
       <c r="G79" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3014,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>1.8</v>
       </c>
@@ -3030,7 +3083,7 @@
       <c r="E80" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F80" s="40"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -3067,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>1.8</v>
       </c>
@@ -3083,7 +3136,7 @@
       <c r="E81" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F81" s="41"/>
+      <c r="F81" s="48"/>
       <c r="G81" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3120,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>2.5</v>
       </c>
@@ -3136,7 +3189,7 @@
       <c r="E82" s="22">
         <v>2.5</v>
       </c>
-      <c r="F82" s="39"/>
+      <c r="F82" s="46"/>
       <c r="G82" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3173,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>2.5</v>
       </c>
@@ -3189,7 +3242,7 @@
       <c r="E83" s="12">
         <v>2.5</v>
       </c>
-      <c r="F83" s="40"/>
+      <c r="F83" s="47"/>
       <c r="G83" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3226,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>2.5</v>
       </c>
@@ -3242,7 +3295,7 @@
       <c r="E84" s="12">
         <v>2.5</v>
       </c>
-      <c r="F84" s="40"/>
+      <c r="F84" s="47"/>
       <c r="G84" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3279,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>2.5</v>
       </c>
@@ -3295,7 +3348,7 @@
       <c r="E85" s="12">
         <v>2.5</v>
       </c>
-      <c r="F85" s="40"/>
+      <c r="F85" s="47"/>
       <c r="G85" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3332,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>2.5</v>
       </c>
@@ -3348,7 +3401,7 @@
       <c r="E86" s="12">
         <v>2.5</v>
       </c>
-      <c r="F86" s="40"/>
+      <c r="F86" s="47"/>
       <c r="G86" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
@@ -3385,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>2.5</v>
       </c>
@@ -3401,7 +3454,7 @@
       <c r="E87" s="12">
         <v>2.5</v>
       </c>
-      <c r="F87" s="40"/>
+      <c r="F87" s="47"/>
       <c r="G87" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3438,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>2.5</v>
       </c>
@@ -3454,7 +3507,7 @@
       <c r="E88" s="12">
         <v>2.5</v>
       </c>
-      <c r="F88" s="40"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="21">
         <f t="shared" si="1"/>
         <v>5.3999999999999826E-2</v>
@@ -3491,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>2.5</v>
       </c>
@@ -3507,7 +3560,7 @@
       <c r="E89" s="12">
         <v>2.5</v>
       </c>
-      <c r="F89" s="40"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3541,7 +3594,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>2.5</v>
       </c>
@@ -3557,7 +3610,7 @@
       <c r="E90" s="12">
         <v>2.5</v>
       </c>
-      <c r="F90" s="40"/>
+      <c r="F90" s="47"/>
       <c r="G90" s="21">
         <f t="shared" si="1"/>
         <v>3.3999999999999808E-2</v>
@@ -3591,7 +3644,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>2.5</v>
       </c>
@@ -3607,7 +3660,7 @@
       <c r="E91" s="13">
         <v>2.5</v>
       </c>
-      <c r="F91" s="41"/>
+      <c r="F91" s="48"/>
       <c r="G91" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3641,7 +3694,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -3672,7 +3725,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -3698,7 +3751,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -3726,7 +3779,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3844,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96" s="24">
         <v>1.024</v>
@@ -3850,7 +3903,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="23">
         <v>1.8</v>
@@ -3909,7 +3962,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="23">
         <v>2.5</v>
@@ -3968,7 +4021,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -3994,7 +4047,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -4020,7 +4073,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
@@ -4081,7 +4134,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="24">
         <v>1.024</v>
@@ -4136,7 +4189,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="23">
         <v>1.8</v>
@@ -4191,7 +4244,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="23">
         <v>2.5</v>
@@ -4246,7 +4299,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -4272,7 +4325,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -4298,7 +4351,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="62" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -4359,7 +4412,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="24">
         <v>1.024</v>
@@ -4414,7 +4467,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109" s="23">
         <v>1.8</v>
@@ -4469,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110" s="23">
         <v>2.5</v>
@@ -4524,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -4550,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -4576,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="62" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114" s="24">
         <v>1.024</v>
@@ -4692,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115" s="23">
         <v>1.8</v>
@@ -4747,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116" s="23">
         <v>2.5</v>
@@ -4802,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -4828,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -4853,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="62" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>14</v>
       </c>
@@ -4897,10 +4950,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="C121" s="2" t="s">
         <v>33</v>
@@ -4918,7 +4971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="C122" s="2" t="s">
         <v>38</v>
@@ -4936,7 +4989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123" s="3" t="s">
         <v>10</v>
@@ -4965,7 +5018,7 @@
       <c r="O123" s="23"/>
       <c r="P123" s="23"/>
     </row>
-    <row r="124" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124" s="3" t="s">
         <v>11</v>
@@ -4994,7 +5047,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="62" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125" s="3" t="s">
         <v>12</v>
@@ -5023,7 +5076,7 @@
         <v>53.999999999999829</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="62" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126" s="3" t="s">
         <v>13</v>
@@ -5053,7 +5106,7 @@
         <v>16.999999999999904</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127" s="3" t="s">
         <v>14</v>
@@ -5082,7 +5135,7 @@
         <v>83.000000000000185</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5099,7 +5152,7 @@
         <v>23.999999999999993</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5116,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5128,7 +5181,7 @@
       <c r="I130"/>
       <c r="M130" s="28"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131" s="2" t="s">
@@ -5149,7 +5202,7 @@
       <c r="H131"/>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132" s="2" t="s">
@@ -5170,7 +5223,7 @@
       <c r="H132"/>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:16" ht="31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133" s="3" t="s">
         <v>10</v>
@@ -5195,7 +5248,7 @@
       <c r="H133"/>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:16" ht="31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134" s="3" t="s">
         <v>11</v>
@@ -5220,7 +5273,7 @@
       <c r="H134"/>
       <c r="I134"/>
     </row>
-    <row r="135" spans="1:16" ht="62" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135" s="3" t="s">
         <v>12</v>
@@ -5256,7 +5309,7 @@
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="62" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136" s="3" t="s">
         <v>13</v>
@@ -5288,7 +5341,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137" s="3" t="s">
         <v>14</v>
@@ -5320,7 +5373,7 @@
         <v>0.90000000000000013</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5338,7 +5391,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5356,7 +5409,7 @@
         <v>1.0199999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -5374,7 +5427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -5385,7 +5438,7 @@
       <c r="H141"/>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -5396,7 +5449,7 @@
       <c r="H142"/>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -5407,7 +5460,7 @@
       <c r="H143"/>
       <c r="I143"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -5420,6 +5473,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F81"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A25:A34"/>
@@ -5427,11 +5485,6 @@
     <mergeCell ref="F15:F24"/>
     <mergeCell ref="F25:F34"/>
     <mergeCell ref="F35:F44"/>
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5446,15 +5499,15 @@
       <selection activeCell="H4" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -5467,13 +5520,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -5486,7 +5539,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="G4" s="19" t="s">
         <v>23</v>
@@ -5496,15 +5549,15 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
@@ -5513,7 +5566,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -5537,7 +5590,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5554,7 +5607,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5571,7 +5624,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5592,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5613,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5634,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5655,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5676,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5697,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -5718,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -5739,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -5760,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -5781,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13</v>
       </c>
@@ -5802,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -5823,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -5844,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>16</v>
       </c>
@@ -5865,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17</v>
       </c>
@@ -5886,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -5907,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19</v>
       </c>
@@ -5928,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -5949,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -5970,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -5991,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>23</v>
       </c>
@@ -6012,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24</v>
       </c>
@@ -6033,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>25</v>
       </c>
@@ -6054,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>26</v>
       </c>
@@ -6075,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>27</v>
       </c>
@@ -6096,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>28</v>
       </c>
@@ -6117,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>29</v>
       </c>
@@ -6138,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>30</v>
       </c>
@@ -6159,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>31</v>
       </c>
@@ -6180,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>32</v>
       </c>
@@ -6201,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>33</v>
       </c>
@@ -6222,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>34</v>
       </c>
@@ -6243,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>35</v>
       </c>
@@ -6264,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>36</v>
       </c>
@@ -6285,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>37</v>
       </c>
@@ -6306,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>38</v>
       </c>
@@ -6327,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>39</v>
       </c>
@@ -6348,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40</v>
       </c>
@@ -6369,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>41</v>
       </c>
@@ -6390,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>42</v>
       </c>
@@ -6411,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>43</v>
       </c>
@@ -6432,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>44</v>
       </c>
@@ -6453,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>45</v>
       </c>
@@ -6474,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>46</v>
       </c>
@@ -6495,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>47</v>
       </c>
@@ -6516,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>48</v>
       </c>
@@ -6537,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>49</v>
       </c>
@@ -6558,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50</v>
       </c>
@@ -6579,7 +6632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>51</v>
       </c>
@@ -6600,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>52</v>
       </c>
@@ -6621,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>53</v>
       </c>
@@ -6642,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>54</v>
       </c>
@@ -6663,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>55</v>
       </c>
@@ -6684,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>56</v>
       </c>
@@ -6705,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>57</v>
       </c>
@@ -6726,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>58</v>
       </c>
@@ -6747,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>59</v>
       </c>
@@ -6768,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
@@ -6789,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>61</v>
       </c>
@@ -6810,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>62</v>
       </c>
@@ -6831,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>63</v>
       </c>
@@ -6852,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>64</v>
       </c>
@@ -6873,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>65</v>
       </c>
@@ -6894,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>66</v>
       </c>
@@ -6915,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>67</v>
       </c>
@@ -6936,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>68</v>
       </c>
@@ -6957,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>69</v>
       </c>
@@ -6978,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>70</v>
       </c>
@@ -6999,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>71</v>
       </c>
@@ -7020,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>72</v>
       </c>
@@ -7041,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>73</v>
       </c>
@@ -7062,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>74</v>
       </c>
@@ -7079,7 +7132,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>75</v>
       </c>
@@ -7096,7 +7149,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>76</v>
       </c>
@@ -7113,7 +7166,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>77</v>
       </c>
@@ -7130,7 +7183,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>78</v>
       </c>
@@ -7147,7 +7200,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>79</v>
       </c>
@@ -7164,7 +7217,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>80</v>
       </c>
@@ -7181,7 +7234,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>81</v>
       </c>
@@ -7198,7 +7251,7 @@
         <v>1.4730000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>82</v>
       </c>
@@ -7215,7 +7268,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>83</v>
       </c>
@@ -7232,7 +7285,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>84</v>
       </c>
@@ -7249,7 +7302,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>85</v>
       </c>
@@ -7266,7 +7319,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>86</v>
       </c>
@@ -7283,7 +7336,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>87</v>
       </c>
@@ -7300,7 +7353,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>88</v>
       </c>
@@ -7317,7 +7370,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>89</v>
       </c>
@@ -7334,7 +7387,7 @@
         <v>1.482</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>90</v>
       </c>
@@ -7351,7 +7404,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>91</v>
       </c>
@@ -7368,7 +7421,7 @@
         <v>1.7430000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>92</v>
       </c>
@@ -7385,7 +7438,7 @@
         <v>1.573</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>93</v>
       </c>
@@ -7402,7 +7455,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>94</v>
       </c>
@@ -7419,7 +7472,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>95</v>
       </c>
@@ -7436,7 +7489,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>96</v>
       </c>
@@ -7453,7 +7506,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>97</v>
       </c>
@@ -7470,7 +7523,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>98</v>
       </c>
@@ -7487,7 +7540,7 @@
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>99</v>
       </c>
@@ -7504,7 +7557,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>100</v>
       </c>
@@ -7521,7 +7574,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>101</v>
       </c>
@@ -7538,7 +7591,7 @@
         <v>1.6439999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>102</v>
       </c>
@@ -7555,7 +7608,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>103</v>
       </c>
@@ -7572,7 +7625,7 @@
         <v>1.6559999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>104</v>
       </c>
@@ -7589,7 +7642,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>105</v>
       </c>
@@ -7606,7 +7659,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>106</v>
       </c>
@@ -7623,7 +7676,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>107</v>
       </c>
@@ -7640,7 +7693,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>108</v>
       </c>
@@ -7657,7 +7710,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>109</v>
       </c>
@@ -7674,7 +7727,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>110</v>
       </c>
@@ -7691,7 +7744,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>111</v>
       </c>
@@ -7708,7 +7761,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>112</v>
       </c>
@@ -7725,7 +7778,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>113</v>
       </c>
@@ -7742,7 +7795,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>114</v>
       </c>
@@ -7759,7 +7812,7 @@
         <v>1.7310000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>115</v>
       </c>
@@ -7776,7 +7829,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>116</v>
       </c>
@@ -7793,7 +7846,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>117</v>
       </c>
@@ -7810,7 +7863,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>118</v>
       </c>
@@ -7827,7 +7880,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>119</v>
       </c>
@@ -7844,7 +7897,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>120</v>
       </c>
@@ -7861,7 +7914,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>121</v>
       </c>
@@ -7878,7 +7931,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>122</v>
       </c>
@@ -7895,7 +7948,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>123</v>
       </c>
@@ -7912,7 +7965,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>124</v>
       </c>
@@ -7929,7 +7982,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>125</v>
       </c>
@@ -7946,7 +7999,7 @@
         <v>1.766</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>126</v>
       </c>
@@ -7963,7 +8016,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>127</v>
       </c>
@@ -7980,7 +8033,7 @@
         <v>1.3859999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>128</v>
       </c>
@@ -7997,7 +8050,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>129</v>
       </c>
@@ -8014,7 +8067,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>130</v>
       </c>
@@ -8031,7 +8084,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>131</v>
       </c>
@@ -8048,7 +8101,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>132</v>
       </c>
@@ -8065,7 +8118,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>133</v>
       </c>
@@ -8082,7 +8135,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>134</v>
       </c>
@@ -8099,7 +8152,7 @@
         <v>1.292</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>135</v>
       </c>
@@ -8116,7 +8169,7 @@
         <v>1.5760000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>136</v>
       </c>
@@ -8133,7 +8186,7 @@
         <v>1.7629999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>137</v>
       </c>
@@ -8150,7 +8203,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>138</v>
       </c>
@@ -8167,7 +8220,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>139</v>
       </c>
@@ -8184,7 +8237,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>140</v>
       </c>
@@ -8201,7 +8254,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>141</v>
       </c>
@@ -8218,7 +8271,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>142</v>
       </c>
@@ -8235,7 +8288,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>143</v>
       </c>
@@ -8252,7 +8305,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>144</v>
       </c>
@@ -8269,7 +8322,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>145</v>
       </c>
@@ -8286,7 +8339,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>146</v>
       </c>
@@ -8303,7 +8356,7 @@
         <v>1.466</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>147</v>
       </c>
@@ -8320,7 +8373,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>148</v>
       </c>
@@ -8337,7 +8390,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>149</v>
       </c>
@@ -8354,7 +8407,7 @@
         <v>1.589</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>150</v>
       </c>
@@ -8371,7 +8424,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>151</v>
       </c>
@@ -8388,7 +8441,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>152</v>
       </c>
@@ -8405,7 +8458,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>153</v>
       </c>
@@ -8422,7 +8475,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>154</v>
       </c>
@@ -8439,7 +8492,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>155</v>
       </c>
@@ -8456,7 +8509,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>156</v>
       </c>
@@ -8473,7 +8526,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>157</v>
       </c>
@@ -8490,7 +8543,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>158</v>
       </c>
@@ -8507,7 +8560,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>159</v>
       </c>
@@ -8524,7 +8577,7 @@
         <v>1.772</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>160</v>
       </c>
@@ -8541,7 +8594,7 @@
         <v>1.679</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>161</v>
       </c>
@@ -8558,7 +8611,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>162</v>
       </c>
@@ -8575,7 +8628,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>163</v>
       </c>
@@ -8592,7 +8645,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>164</v>
       </c>
@@ -8609,7 +8662,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>165</v>
       </c>
@@ -8626,7 +8679,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>166</v>
       </c>
@@ -8643,7 +8696,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>167</v>
       </c>
@@ -8660,7 +8713,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>168</v>
       </c>
@@ -8677,7 +8730,7 @@
         <v>1.212</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>169</v>
       </c>
@@ -8694,7 +8747,7 @@
         <v>1.502</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>170</v>
       </c>
@@ -8711,7 +8764,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>171</v>
       </c>
@@ -8728,7 +8781,7 @@
         <v>1.7430000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>172</v>
       </c>
@@ -8745,7 +8798,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>173</v>
       </c>
@@ -8762,7 +8815,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>174</v>
       </c>
@@ -8779,7 +8832,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>175</v>
       </c>
@@ -8796,7 +8849,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>176</v>
       </c>
@@ -8813,7 +8866,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>177</v>
       </c>
@@ -8830,7 +8883,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>178</v>
       </c>
@@ -8847,7 +8900,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>179</v>
       </c>
@@ -8864,7 +8917,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>180</v>
       </c>
@@ -8881,7 +8934,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>181</v>
       </c>
@@ -8898,7 +8951,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>182</v>
       </c>
@@ -8915,7 +8968,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>183</v>
       </c>
@@ -8932,7 +8985,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>184</v>
       </c>
@@ -8949,7 +9002,7 @@
         <v>1.415</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>185</v>
       </c>
@@ -8966,7 +9019,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>186</v>
       </c>
@@ -8983,7 +9036,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>187</v>
       </c>
@@ -9000,7 +9053,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>188</v>
       </c>
@@ -9017,7 +9070,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>189</v>
       </c>
@@ -9034,7 +9087,7 @@
         <v>0.70899999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>190</v>
       </c>
@@ -9051,7 +9104,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>191</v>
       </c>
@@ -9068,7 +9121,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>192</v>
       </c>
@@ -9085,7 +9138,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>193</v>
       </c>
@@ -9102,7 +9155,7 @@
         <v>1.756</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>194</v>
       </c>
@@ -9119,7 +9172,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>195</v>
       </c>
@@ -9136,7 +9189,7 @@
         <v>1.5209999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>196</v>
       </c>
@@ -9153,7 +9206,7 @@
         <v>1.2470000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>197</v>
       </c>
@@ -9170,7 +9223,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>198</v>
       </c>
@@ -9187,7 +9240,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>199</v>
       </c>
@@ -9204,7 +9257,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>200</v>
       </c>
@@ -9221,7 +9274,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>201</v>
       </c>
@@ -9238,7 +9291,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>202</v>
       </c>
@@ -9255,7 +9308,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>203</v>
       </c>
@@ -9272,7 +9325,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>204</v>
       </c>
@@ -9289,7 +9342,7 @@
         <v>1.6950000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>205</v>
       </c>
@@ -9306,7 +9359,7 @@
         <v>1.766</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>206</v>
       </c>
@@ -9323,7 +9376,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>207</v>
       </c>
@@ -9340,7 +9393,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>208</v>
       </c>
@@ -9357,7 +9410,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>209</v>
       </c>
@@ -9374,7 +9427,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>210</v>
       </c>
@@ -9391,7 +9444,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>211</v>
       </c>
@@ -9408,7 +9461,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>212</v>
       </c>
@@ -9425,7 +9478,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>213</v>
       </c>
@@ -9442,7 +9495,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>214</v>
       </c>
@@ -9459,7 +9512,7 @@
         <v>1.302</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>215</v>
       </c>
@@ -9476,7 +9529,7 @@
         <v>1.5820000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>216</v>
       </c>
@@ -9493,7 +9546,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>217</v>
       </c>
@@ -9510,7 +9563,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>218</v>
       </c>
@@ -9527,7 +9580,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>219</v>
       </c>
@@ -9544,7 +9597,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>220</v>
       </c>
@@ -9561,7 +9614,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>221</v>
       </c>
@@ -9578,7 +9631,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>222</v>
       </c>
@@ -9595,7 +9648,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>223</v>
       </c>
@@ -9612,7 +9665,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>224</v>
       </c>
@@ -9629,7 +9682,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>225</v>
       </c>
@@ -9646,7 +9699,7 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>226</v>
       </c>
@@ -9663,7 +9716,7 @@
         <v>1.466</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>227</v>
       </c>
@@ -9680,7 +9733,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>228</v>
       </c>
@@ -9697,7 +9750,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>229</v>
       </c>
@@ -9714,7 +9767,7 @@
         <v>1.5920000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>230</v>
       </c>
@@ -9731,7 +9784,7 @@
         <v>1.331</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>231</v>
       </c>
@@ -9748,7 +9801,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>232</v>
       </c>
@@ -9765,7 +9818,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>233</v>
       </c>
@@ -9782,7 +9835,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>234</v>
       </c>
@@ -9799,7 +9852,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>235</v>
       </c>
@@ -9816,7 +9869,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>236</v>
       </c>
@@ -9833,7 +9886,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>237</v>
       </c>
@@ -9850,7 +9903,7 @@
         <v>1.347</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>238</v>
       </c>
@@ -9867,7 +9920,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>239</v>
       </c>
@@ -9884,7 +9937,7 @@
         <v>1.7689999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>240</v>
       </c>
@@ -9901,7 +9954,7 @@
         <v>1.673</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>241</v>
       </c>
@@ -9918,7 +9971,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>242</v>
       </c>
@@ -9935,7 +9988,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>243</v>
       </c>
@@ -9952,7 +10005,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>244</v>
       </c>
@@ -9969,7 +10022,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>245</v>
       </c>
@@ -9986,7 +10039,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>246</v>
       </c>
@@ -10003,7 +10056,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>247</v>
       </c>
@@ -10020,7 +10073,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>248</v>
       </c>
@@ -10037,7 +10090,7 @@
         <v>1.228</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>249</v>
       </c>
@@ -10054,7 +10107,7 @@
         <v>1.518</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>250</v>
       </c>
@@ -10071,7 +10124,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>251</v>
       </c>
@@ -10088,7 +10141,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>252</v>
       </c>
@@ -10105,7 +10158,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>253</v>
       </c>
@@ -10122,7 +10175,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>254</v>
       </c>
@@ -10139,7 +10192,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>255</v>
       </c>
@@ -10156,7 +10209,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="20">
         <v>256</v>
       </c>
@@ -10173,7 +10226,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B263">
         <v>460084</v>
       </c>
@@ -10187,7 +10240,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B264">
         <v>461880</v>
       </c>
@@ -10201,7 +10254,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B265">
         <v>463680</v>
       </c>
@@ -10215,7 +10268,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B266">
         <v>465488</v>
       </c>
@@ -10229,7 +10282,7 @@
         <v>1.4530000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B267">
         <v>467300</v>
       </c>
@@ -10243,7 +10296,7 @@
         <v>1.708</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B268">
         <v>469092</v>
       </c>
@@ -10257,7 +10310,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B269">
         <v>470900</v>
       </c>
@@ -10271,7 +10324,7 @@
         <v>1.5860000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B270">
         <v>472716</v>
       </c>
@@ -10285,7 +10338,7 @@
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B271">
         <v>474532</v>
       </c>
@@ -10299,7 +10352,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B272">
         <v>476348</v>
       </c>
@@ -10313,7 +10366,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B273">
         <v>478156</v>
       </c>
@@ -10327,7 +10380,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B274">
         <v>479972</v>
       </c>
@@ -10341,7 +10394,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275">
         <v>481776</v>
       </c>
@@ -10355,7 +10408,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B276">
         <v>483584</v>
       </c>
@@ -10369,7 +10422,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B277">
         <v>485392</v>
       </c>
@@ -10383,7 +10436,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B278">
         <v>487196</v>
       </c>
@@ -10397,7 +10450,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B279">
         <v>488988</v>
       </c>
@@ -10411,7 +10464,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B280">
         <v>490804</v>
       </c>
@@ -10425,7 +10478,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B281">
         <v>492620</v>
       </c>
@@ -10439,7 +10492,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B282">
         <v>494428</v>
       </c>
@@ -10453,7 +10506,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B283">
         <v>496236</v>
       </c>
@@ -10467,7 +10520,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B284">
         <v>498052</v>
       </c>
@@ -10481,7 +10534,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B285">
         <v>499868</v>
       </c>
@@ -10495,7 +10548,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B286">
         <v>501676</v>
       </c>
@@ -10509,7 +10562,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B287">
         <v>503484</v>
       </c>
@@ -10523,7 +10576,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B288">
         <v>505288</v>
       </c>
@@ -10537,7 +10590,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B289">
         <v>507100</v>
       </c>
@@ -10551,7 +10604,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B290">
         <v>508900</v>
       </c>
@@ -10565,7 +10618,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B291">
         <v>510708</v>
       </c>
@@ -10579,7 +10632,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B292">
         <v>512524</v>
       </c>
@@ -10593,7 +10646,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B293">
         <v>514332</v>
       </c>
@@ -10607,7 +10660,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B294">
         <v>516140</v>
       </c>
@@ -10621,7 +10674,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B295">
         <v>517948</v>
       </c>
@@ -10635,7 +10688,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B296">
         <v>519764</v>
       </c>
@@ -10649,7 +10702,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B297">
         <v>521580</v>
       </c>
@@ -10663,7 +10716,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B298">
         <v>523396</v>
       </c>
@@ -10677,7 +10730,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B299">
         <v>525192</v>
       </c>
@@ -10691,7 +10744,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B300">
         <v>527000</v>
       </c>
@@ -10705,7 +10758,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B301">
         <v>528812</v>
       </c>
@@ -10719,7 +10772,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B302">
         <v>530612</v>
       </c>
@@ -10733,7 +10786,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B303">
         <v>532420</v>
       </c>
@@ -10747,7 +10800,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B304">
         <v>534236</v>
       </c>
@@ -10761,7 +10814,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B305">
         <v>536052</v>
       </c>
@@ -10775,7 +10828,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B306">
         <v>537860</v>
       </c>
@@ -10789,7 +10842,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B307">
         <v>539668</v>
       </c>
@@ -10803,7 +10856,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D308">
         <v>489604</v>
       </c>
@@ -10811,7 +10864,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D309">
         <v>491404</v>
       </c>
@@ -10819,7 +10872,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D310">
         <v>493220</v>
       </c>
@@ -10827,7 +10880,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D311">
         <v>495036</v>
       </c>
@@ -10835,7 +10888,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D312">
         <v>496852</v>
       </c>
@@ -10843,7 +10896,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D313">
         <v>498660</v>
       </c>
@@ -10851,7 +10904,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D314">
         <v>500476</v>
       </c>
@@ -10859,7 +10912,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D315">
         <v>502292</v>
       </c>
@@ -10867,7 +10920,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D316">
         <v>504100</v>
       </c>
@@ -10875,7 +10928,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D317">
         <v>505908</v>
       </c>
@@ -10883,7 +10936,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D318">
         <v>507716</v>
       </c>
@@ -10891,7 +10944,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D319">
         <v>509524</v>
       </c>
@@ -10899,7 +10952,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D320">
         <v>511332</v>
       </c>
@@ -10907,7 +10960,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D321">
         <v>513156</v>
       </c>
@@ -10915,7 +10968,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D322">
         <v>514964</v>
       </c>
@@ -10923,7 +10976,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D323">
         <v>516772</v>
       </c>
@@ -10931,7 +10984,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D324">
         <v>518588</v>
       </c>
@@ -10939,7 +10992,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D325">
         <v>520404</v>
       </c>
@@ -10947,7 +11000,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D326">
         <v>522212</v>
       </c>
@@ -10955,7 +11008,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D327">
         <v>524028</v>
       </c>
@@ -10963,7 +11016,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D328">
         <v>525836</v>
       </c>
@@ -10971,7 +11024,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D329">
         <v>527644</v>
       </c>
@@ -10979,7 +11032,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D330">
         <v>529452</v>
       </c>
@@ -10987,7 +11040,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D331">
         <v>531260</v>
       </c>
@@ -10995,7 +11048,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D332">
         <v>533076</v>
       </c>
@@ -11003,7 +11056,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D333">
         <v>534892</v>
       </c>
@@ -11011,7 +11064,7 @@
         <v>1.5469999999999999</v>
       </c>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D334">
         <v>536708</v>
       </c>
@@ -11019,7 +11072,7 @@
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D335">
         <v>538516</v>
       </c>
@@ -11027,7 +11080,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D336">
         <v>540324</v>
       </c>
@@ -11035,7 +11088,7 @@
         <v>1.341</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D337">
         <v>538404</v>
       </c>
@@ -11043,7 +11096,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D338">
         <v>540212</v>
       </c>
@@ -11051,7 +11104,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D339">
         <v>534748</v>
       </c>
@@ -11059,7 +11112,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D340">
         <v>536556</v>
       </c>
@@ -11067,7 +11120,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D341">
         <v>538364</v>
       </c>
@@ -11075,7 +11128,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D342">
         <v>540172</v>
       </c>
@@ -11094,36 +11147,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DF4A1-8070-4F58-A040-71BC06857F9D}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="50"/>
       <c r="K1" s="33" t="s">
         <v>46</v>
       </c>
@@ -11131,7 +11186,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -11162,15 +11217,15 @@
       <c r="L2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-    </row>
-    <row r="3" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>0</v>
       </c>
@@ -11208,22 +11263,34 @@
         <v>1.1438028169014087</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1708</v>
       </c>
@@ -11252,114 +11319,181 @@
         <f t="shared" ref="H4:H50" si="3">D4&gt;1.7</f>
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3412</v>
+      </c>
+      <c r="B5">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C5">
+        <v>3400</v>
+      </c>
+      <c r="D5">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5">
         <f>A15-A3</f>
         <v>21000</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <f>A27-A15</f>
         <v>21132</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <f>A39-A27</f>
         <v>21132</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <f>A51-A39</f>
         <v>21124</v>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>A62-A50</f>
         <v>21400</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3412</v>
-      </c>
-      <c r="B5">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="C5">
-        <v>3400</v>
-      </c>
-      <c r="D5">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="T5" s="52">
+        <f>AVERAGE(O5:S5)</f>
+        <v>21157.599999999999</v>
+      </c>
+      <c r="U5" s="29">
+        <f>_xlfn.STDEV.S(O5:S5)</f>
+        <v>146.65878766715616</v>
+      </c>
+      <c r="V5">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W5" s="29">
+        <f>V5*U5/SQRT(5)</f>
+        <v>182.10093666651801</v>
+      </c>
+      <c r="AB5" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5156</v>
+      </c>
+      <c r="B6">
+        <v>0.999</v>
+      </c>
+      <c r="C6">
+        <v>5116</v>
+      </c>
+      <c r="D6">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" t="b">
+      <c r="F6" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G6" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" t="b">
+      <c r="H6" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
         <f>C15-C3</f>
         <v>20912</v>
       </c>
-      <c r="P5">
+      <c r="P6">
         <f>C27-C15</f>
         <v>21104</v>
       </c>
-      <c r="Q5">
+      <c r="Q6">
         <f>C39-C27</f>
         <v>21136</v>
       </c>
-      <c r="R5">
+      <c r="R6">
         <f>C51-C39</f>
         <v>21096</v>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>C62-C50</f>
         <v>21304</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5156</v>
-      </c>
-      <c r="B6">
-        <v>0.999</v>
-      </c>
-      <c r="C6">
-        <v>5116</v>
-      </c>
-      <c r="D6">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T6" s="52">
+        <f>AVERAGE(O6:S6)</f>
+        <v>21110.400000000001</v>
+      </c>
+      <c r="U6" s="29">
+        <f>_xlfn.STDEV.S(O6:S6)</f>
+        <v>139.41592448497411</v>
+      </c>
+      <c r="V6">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W6" s="29">
+        <f>V6*U6/SQRT(5)</f>
+        <v>173.107734209287</v>
+      </c>
+      <c r="AB6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK6" s="34"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6908</v>
       </c>
@@ -11388,8 +11522,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="21">
+        <f>1/O5*10^6</f>
+        <v>47.61904761904762</v>
+      </c>
+      <c r="AC7" s="21">
+        <f>1/P5*10^6</f>
+        <v>47.321597577134206</v>
+      </c>
+      <c r="AD7" s="21">
+        <f>1/Q5*10^6</f>
+        <v>47.321597577134206</v>
+      </c>
+      <c r="AE7" s="21">
+        <f>1/R5*10^6</f>
+        <v>47.339519030486649</v>
+      </c>
+      <c r="AF7" s="21">
+        <f>1/S5*10^6</f>
+        <v>46.728971962616818</v>
+      </c>
+      <c r="AG7">
+        <f>AVERAGE(AB7:AF7)</f>
+        <v>47.266146753283905</v>
+      </c>
+      <c r="AH7" s="39">
+        <f>_xlfn.STDEV.S(AB7:AF7)</f>
+        <v>0.32581776178497363</v>
+      </c>
+      <c r="AI7">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="AJ7" s="25">
+        <f>AI7*AH7/SQRT(5)</f>
+        <v>0.40455618478373195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8676</v>
       </c>
@@ -11421,8 +11594,50 @@
       <c r="K8" s="33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="21">
+        <f>1/O6*10^6</f>
+        <v>47.819433817903594</v>
+      </c>
+      <c r="AC8" s="21">
+        <f>1/P6*10^6</f>
+        <v>47.384382107657316</v>
+      </c>
+      <c r="AD8" s="21">
+        <f>1/Q6*10^6</f>
+        <v>47.312641937925811</v>
+      </c>
+      <c r="AE8" s="21">
+        <f>1/R6*10^6</f>
+        <v>47.402351156617364</v>
+      </c>
+      <c r="AF8" s="21">
+        <f>1/S6*10^6</f>
+        <v>46.939541870071345</v>
+      </c>
+      <c r="AG8">
+        <f>AVERAGE(AB8:AF8)</f>
+        <v>47.371670178035082</v>
+      </c>
+      <c r="AH8" s="39">
+        <f>_xlfn.STDEV.S(AB8:AF8)</f>
+        <v>0.31297539857941931</v>
+      </c>
+      <c r="AI8">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="AJ8" s="25">
+        <f>AI8*AH8/SQRT(5)</f>
+        <v>0.38861028473953846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>10428</v>
       </c>
@@ -11457,15 +11672,14 @@
       <c r="L9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12180</v>
       </c>
@@ -11494,44 +11708,34 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="39">
         <f>'Analog Voltage'!N101</f>
         <v>1.6999999999999904E-2</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="39">
         <f>3.3/32/2</f>
         <v>5.1562499999999997E-2</v>
       </c>
-      <c r="O10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="X10" s="34"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="21">
+        <f>1/T5*10^6</f>
+        <v>47.264340000756235</v>
+      </c>
+      <c r="P10" s="39">
+        <f>W5/(T5)^2*10^6</f>
+        <v>0.40679853031830099</v>
+      </c>
+      <c r="AB10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13956</v>
       </c>
@@ -11560,146 +11764,202 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="21">
+        <f>1/T6*10^6</f>
+        <v>47.370016674245868</v>
+      </c>
+      <c r="P11" s="39">
+        <f>W6/(T6)^2*10^6</f>
+        <v>0.38843964377438828</v>
+      </c>
+      <c r="AB11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK11" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15724</v>
+      </c>
+      <c r="B12">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="C12">
+        <v>15652</v>
+      </c>
+      <c r="D12">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>10</v>
       </c>
-      <c r="O11" s="21">
-        <f>1/O4*10^6</f>
-        <v>47.61904761904762</v>
-      </c>
-      <c r="P11" s="21">
-        <f t="shared" ref="P11:S12" si="4">1/P4*10^6</f>
-        <v>47.321597577134206</v>
-      </c>
-      <c r="Q11" s="21">
-        <f t="shared" si="4"/>
-        <v>47.321597577134206</v>
-      </c>
-      <c r="R11" s="21">
-        <f t="shared" si="4"/>
-        <v>47.339519030486649</v>
-      </c>
-      <c r="S11" s="21">
-        <f t="shared" si="4"/>
-        <v>46.728971962616818</v>
-      </c>
-      <c r="T11">
-        <f>AVERAGE(O11:S11)</f>
-        <v>47.266146753283905</v>
-      </c>
-      <c r="U11" s="51">
-        <f>_xlfn.STDEV.S(O11:S11)</f>
-        <v>0.32581776178497363</v>
-      </c>
-      <c r="V11">
+      <c r="AB12">
+        <f>B9-B3</f>
+        <v>1.212</v>
+      </c>
+      <c r="AC12">
+        <f>B21-B15</f>
+        <v>1.234</v>
+      </c>
+      <c r="AD12">
+        <f>B33-B27</f>
+        <v>1.234</v>
+      </c>
+      <c r="AE12">
+        <f>B45-B39</f>
+        <v>1.206</v>
+      </c>
+      <c r="AF12">
+        <f>B56-B50</f>
+        <v>1.1989999999999998</v>
+      </c>
+      <c r="AG12">
+        <f>AVERAGE(AB12:AF12)</f>
+        <v>1.2169999999999999</v>
+      </c>
+      <c r="AH12" s="25">
+        <f>_xlfn.STDEV.S(AB12:AF12)</f>
+        <v>1.618641405623869E-2</v>
+      </c>
+      <c r="AI12">
         <f>-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W11" s="25">
-        <f>V11*U11/SQRT(5)</f>
-        <v>0.40455618478373195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>15724</v>
-      </c>
-      <c r="B12">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="C12">
-        <v>15652</v>
-      </c>
-      <c r="D12">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="E12" t="b">
+      <c r="AJ12" s="25">
+        <f t="shared" ref="AJ12:AJ13" si="4">AI12*AH12/SQRT(5)</f>
+        <v>2.0098087593650941E-2</v>
+      </c>
+      <c r="AK12" s="25">
+        <f>SQRT(K10^2+AJ12^2)</f>
+        <v>2.6323622944459273E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17492</v>
+      </c>
+      <c r="B13">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C13">
+        <v>17420</v>
+      </c>
+      <c r="D13">
+        <v>0.96</v>
+      </c>
+      <c r="E13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" t="b">
+      <c r="F13" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" t="b">
+      <c r="G13" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" t="b">
+      <c r="H13" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="O13" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="AA13">
         <v>5</v>
       </c>
-      <c r="O12" s="21">
-        <f>1/O5*10^6</f>
-        <v>47.819433817903594</v>
-      </c>
-      <c r="P12" s="21">
-        <f t="shared" si="4"/>
-        <v>47.384382107657316</v>
-      </c>
-      <c r="Q12" s="21">
-        <f t="shared" si="4"/>
-        <v>47.312641937925811</v>
-      </c>
-      <c r="R12" s="21">
-        <f t="shared" si="4"/>
-        <v>47.402351156617364</v>
-      </c>
-      <c r="S12" s="21">
-        <f t="shared" si="4"/>
-        <v>46.939541870071345</v>
-      </c>
-      <c r="T12">
-        <f>AVERAGE(O12:S12)</f>
-        <v>47.371670178035082</v>
-      </c>
-      <c r="U12" s="51">
-        <f>_xlfn.STDEV.S(O12:S12)</f>
-        <v>0.31297539857941931</v>
-      </c>
-      <c r="V12">
+      <c r="AB13">
+        <f>D9-D3</f>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="AC13">
+        <f>D21-D15</f>
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="AD13">
+        <f>D33-D27</f>
+        <v>1.2279999999999998</v>
+      </c>
+      <c r="AE13">
+        <f>D44-D39</f>
+        <v>1.1920000000000002</v>
+      </c>
+      <c r="AF13">
+        <f>D56-D50</f>
+        <v>1.2149999999999999</v>
+      </c>
+      <c r="AG13" s="21">
+        <f>AVERAGE(AB13:AF13)</f>
+        <v>1.2193999999999998</v>
+      </c>
+      <c r="AH13" s="25">
+        <f>_xlfn.STDEV.S(AB13:AF13)</f>
+        <v>1.7213366899011869E-2</v>
+      </c>
+      <c r="AI13">
         <f>-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W12" s="25">
-        <f>V12*U12/SQRT(5)</f>
-        <v>0.38861028473953846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>17492</v>
-      </c>
-      <c r="B13">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="C13">
-        <v>17420</v>
-      </c>
-      <c r="D13">
-        <v>0.96</v>
-      </c>
-      <c r="E13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="25">
+        <f t="shared" si="4"/>
+        <v>2.1373217966375407E-2</v>
+      </c>
+      <c r="AK13" s="25">
+        <f>SQRT(AJ13^2+L10^2)</f>
+        <v>5.5816716604330928E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>19240</v>
       </c>
@@ -11728,15 +11988,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-    </row>
-    <row r="15" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="O14" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>21000</v>
       </c>
@@ -11765,38 +12051,58 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="V15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="W15" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="X15" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15">
+        <f>B3</f>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="P15">
+        <f>B15</f>
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="Q15">
+        <f>B27</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="R15">
+        <f>B39</f>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="S15">
+        <f>B50</f>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(O15:S15)</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="U15" s="31">
+        <f>_xlfn.STDEV.S(O15:S15)</f>
+        <v>1.1113055385446446E-2</v>
+      </c>
+      <c r="V15" s="25">
+        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W15" s="39">
+        <f>V15*U15/SQRT(5)</f>
+        <v>1.3798680782153308E-2</v>
+      </c>
+      <c r="X15" s="39">
+        <f>K10</f>
+        <v>1.6999999999999904E-2</v>
+      </c>
+      <c r="Y15" s="25">
+        <f>SQRT(W15^2+X15^2)</f>
+        <v>2.1895286966097608E-2</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22744</v>
       </c>
@@ -11825,51 +12131,61 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>10</v>
+      <c r="N16" t="s">
+        <v>85</v>
       </c>
       <c r="O16">
-        <f>B9-B3</f>
-        <v>1.212</v>
+        <f>D3</f>
+        <v>0.53800000000000003</v>
       </c>
       <c r="P16">
-        <f>B21-B15</f>
-        <v>1.234</v>
+        <f>D15</f>
+        <v>0.53500000000000003</v>
       </c>
       <c r="Q16">
-        <f>B33-B27</f>
-        <v>1.234</v>
+        <f>D27</f>
+        <v>0.53500000000000003</v>
       </c>
       <c r="R16">
-        <f>B45-B39</f>
-        <v>1.206</v>
+        <f>D39</f>
+        <v>0.55100000000000005</v>
       </c>
       <c r="S16">
-        <f>B56-B50</f>
-        <v>1.1989999999999998</v>
+        <f>D50</f>
+        <v>0.55100000000000005</v>
       </c>
       <c r="T16">
-        <f>AVERAGE(O16:S16)</f>
-        <v>1.2169999999999999</v>
-      </c>
-      <c r="U16" s="25">
-        <f>_xlfn.STDEV.S(O16:S16)</f>
-        <v>1.618641405623869E-2</v>
-      </c>
-      <c r="V16">
-        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <f t="shared" ref="T16:T18" si="5">AVERAGE(O16:S16)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="U16" s="31">
+        <f t="shared" ref="U16:U18" si="6">_xlfn.STDEV.S(O16:S16)</f>
+        <v>8.3066238629180816E-3</v>
+      </c>
+      <c r="V16" s="25">
+        <f t="shared" ref="V16:V18" si="7">-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W16" s="25">
-        <f t="shared" ref="W16:W17" si="5">V16*U16/SQRT(5)</f>
-        <v>2.0098087593650941E-2</v>
-      </c>
-      <c r="X16" s="25">
-        <f>SQRT(K10^2+W16^2)</f>
-        <v>2.6323622944459273E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W16" s="39">
+        <f t="shared" ref="W16:W18" si="8">V16*U16/SQRT(5)</f>
+        <v>1.0314035797205662E-2</v>
+      </c>
+      <c r="X16" s="39">
+        <f>L10</f>
+        <v>5.1562499999999997E-2</v>
+      </c>
+      <c r="Y16" s="25">
+        <f t="shared" ref="Y16:Y18" si="9">SQRT(W16^2+X16^2)</f>
+        <v>5.2583939950103013E-2</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24488</v>
       </c>
@@ -11898,51 +12214,67 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <f>D9-D3</f>
-        <v>1.2249999999999999</v>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="21">
+        <f>B9</f>
+        <v>1.76</v>
       </c>
       <c r="P17">
-        <f>D21-D15</f>
-        <v>1.2370000000000001</v>
+        <f>B21</f>
+        <v>1.772</v>
       </c>
       <c r="Q17">
-        <f>D33-D27</f>
-        <v>1.2279999999999998</v>
+        <f>B33</f>
+        <v>1.766</v>
       </c>
       <c r="R17">
-        <f>D44-D39</f>
-        <v>1.1920000000000002</v>
-      </c>
-      <c r="S17">
-        <f>D56-D50</f>
-        <v>1.2149999999999999</v>
-      </c>
-      <c r="T17" s="21">
-        <f>AVERAGE(O17:S17)</f>
-        <v>1.2193999999999998</v>
-      </c>
-      <c r="U17" s="25">
-        <f>_xlfn.STDEV.S(O17:S17)</f>
-        <v>1.7213366899011869E-2</v>
-      </c>
-      <c r="V17">
-        <f>-_xlfn.T.INV(0.025, 4)</f>
+        <f>B45</f>
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="S17" s="21">
+        <f>B56</f>
+        <v>1.76</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="U17" s="31">
+        <f t="shared" si="6"/>
+        <v>9.2736184954956696E-3</v>
+      </c>
+      <c r="V17" s="25">
+        <f t="shared" si="7"/>
         <v>2.7764451051977934</v>
       </c>
-      <c r="W17" s="25">
-        <f t="shared" si="5"/>
-        <v>2.1373217966375407E-2</v>
-      </c>
-      <c r="X17" s="25">
-        <f>SQRT(W17^2+L10^2)</f>
-        <v>5.5816716604330928E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W17" s="39">
+        <f t="shared" si="8"/>
+        <v>1.1514718218933529E-2</v>
+      </c>
+      <c r="X17" s="39">
+        <f>K10</f>
+        <v>1.6999999999999904E-2</v>
+      </c>
+      <c r="Y17" s="25">
+        <f t="shared" si="9"/>
+        <v>2.0532626126763143E-2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>26252</v>
       </c>
@@ -11971,8 +12303,74 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18">
+        <f>D9</f>
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="P18">
+        <f>D21</f>
+        <v>1.772</v>
+      </c>
+      <c r="Q18">
+        <f>D33</f>
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="R18">
+        <f>D44</f>
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="S18">
+        <f>D56</f>
+        <v>1.766</v>
+      </c>
+      <c r="T18" s="21">
+        <f t="shared" si="5"/>
+        <v>1.7614000000000001</v>
+      </c>
+      <c r="U18" s="31">
+        <f t="shared" si="6"/>
+        <v>1.0922453936730473E-2</v>
+      </c>
+      <c r="V18" s="25">
+        <f t="shared" si="7"/>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="W18" s="39">
+        <f t="shared" si="8"/>
+        <v>1.3562017825277202E-2</v>
+      </c>
+      <c r="X18" s="39">
+        <f>L10</f>
+        <v>5.1562499999999997E-2</v>
+      </c>
+      <c r="Y18" s="25">
+        <f t="shared" si="9"/>
+        <v>5.3316223926147814E-2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="25">
+        <f>AJ7</f>
+        <v>0.40455618478373195</v>
+      </c>
+      <c r="AH18" s="25">
+        <f>AJ12</f>
+        <v>2.0098087593650941E-2</v>
+      </c>
+      <c r="AI18" s="39">
+        <f>K10*SQRT(2)</f>
+        <v>2.4041630560342482E-2</v>
+      </c>
+      <c r="AJ18" s="25">
+        <f>SQRT(AH18^2+AI18^2)</f>
+        <v>3.133581217907172E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28020</v>
       </c>
@@ -12001,11 +12399,30 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19" s="25">
+        <f>AJ8</f>
+        <v>0.38861028473953846</v>
+      </c>
+      <c r="AH19" s="25">
+        <f>AJ13</f>
+        <v>2.1373217966375407E-2</v>
+      </c>
+      <c r="AI19" s="39">
+        <f>L10*SQRT(2)</f>
+        <v>7.2920386809862708E-2</v>
+      </c>
+      <c r="AJ19" s="25">
+        <f>SQRT(AH19^2+AI19^2)</f>
+        <v>7.5988138934561314E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>29788</v>
       </c>
@@ -12034,14 +12451,41 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T20" t="s">
+      <c r="O20" s="53" t="str">
+        <f t="shared" ref="O20:T24" si="10">T14</f>
+        <v>Nominal Value</v>
+      </c>
+      <c r="P20" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>Stdev</v>
+      </c>
+      <c r="Q20" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>T INV</v>
+      </c>
+      <c r="R20" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>P_x</v>
+      </c>
+      <c r="S20" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>B_x</v>
+      </c>
+      <c r="T20" s="53" t="str">
+        <f t="shared" si="10"/>
+        <v>U_x</v>
+      </c>
+      <c r="AA20" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="U20" t="s">
+      <c r="AB20" s="33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC20" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="37">
         <v>31556</v>
       </c>
@@ -12070,20 +12514,50 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T21" t="s">
-        <v>69</v>
-      </c>
-      <c r="U21" t="s">
-        <v>69</v>
-      </c>
-      <c r="V21" t="s">
-        <v>72</v>
-      </c>
-      <c r="W21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:T24" si="11">T15</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="P21" s="31">
+        <f t="shared" si="11"/>
+        <v>1.1113055385446446E-2</v>
+      </c>
+      <c r="Q21" s="25">
+        <f t="shared" si="11"/>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="R21" s="39">
+        <f t="shared" si="11"/>
+        <v>1.3798680782153308E-2</v>
+      </c>
+      <c r="S21" s="39">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999904E-2</v>
+      </c>
+      <c r="T21" s="25">
+        <f t="shared" si="11"/>
+        <v>2.1895286966097608E-2</v>
+      </c>
+      <c r="Z21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="21">
+        <f>AG7</f>
+        <v>47.266146753283905</v>
+      </c>
+      <c r="AB21">
+        <f>AG12</f>
+        <v>1.2169999999999999</v>
+      </c>
+      <c r="AC21" s="21">
+        <f>K3</f>
+        <v>1.1345277777777776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>33324</v>
       </c>
@@ -12112,27 +12586,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S22" t="s">
-        <v>63</v>
+      <c r="N22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="11"/>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P22" s="31">
+        <f t="shared" si="11"/>
+        <v>8.3066238629180816E-3</v>
+      </c>
+      <c r="Q22" s="25">
+        <f t="shared" si="11"/>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="R22" s="39">
+        <f t="shared" si="11"/>
+        <v>1.0314035797205662E-2</v>
+      </c>
+      <c r="S22" s="39">
+        <f t="shared" si="11"/>
+        <v>5.1562499999999997E-2</v>
       </c>
       <c r="T22" s="25">
-        <f>W11</f>
-        <v>0.40455618478373195</v>
-      </c>
-      <c r="U22" s="25">
-        <f>W16</f>
-        <v>2.0098087593650941E-2</v>
-      </c>
-      <c r="V22" s="51">
-        <f>K10*SQRT(2)</f>
-        <v>2.4041630560342482E-2</v>
-      </c>
-      <c r="W22" s="25">
-        <f>SQRT(U22^2+V22^2)</f>
-        <v>3.133581217907172E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>5.2583939950103013E-2</v>
+      </c>
+      <c r="Z22" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" s="21">
+        <f>AG8</f>
+        <v>47.371670178035082</v>
+      </c>
+      <c r="AB22">
+        <f>AG13</f>
+        <v>1.2193999999999998</v>
+      </c>
+      <c r="AC22" s="21">
+        <f>L3</f>
+        <v>1.1438028169014087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>35100</v>
       </c>
@@ -12161,30 +12658,47 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23" t="s">
-        <v>64</v>
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="P23" s="31">
+        <f t="shared" si="11"/>
+        <v>9.2736184954956696E-3</v>
+      </c>
+      <c r="Q23" s="25">
+        <f t="shared" si="11"/>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="R23" s="39">
+        <f t="shared" si="11"/>
+        <v>1.1514718218933529E-2</v>
+      </c>
+      <c r="S23" s="39">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999904E-2</v>
       </c>
       <c r="T23" s="25">
-        <f>W12</f>
-        <v>0.38861028473953846</v>
-      </c>
-      <c r="U23" s="25">
-        <f>W17</f>
-        <v>2.1373217966375407E-2</v>
-      </c>
-      <c r="V23" s="51">
-        <f>L10*SQRT(2)</f>
-        <v>7.2920386809862708E-2</v>
-      </c>
-      <c r="W23" s="25">
-        <f>SQRT(U23^2+V23^2)</f>
-        <v>7.5988138934561314E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>2.0532626126763143E-2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>48.54</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>36860</v>
       </c>
@@ -12213,17 +12727,35 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N24" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="21">
+        <f t="shared" si="11"/>
+        <v>1.7614000000000001</v>
+      </c>
+      <c r="P24" s="31">
+        <f t="shared" si="11"/>
+        <v>1.0922453936730473E-2</v>
+      </c>
+      <c r="Q24" s="25">
+        <f t="shared" si="11"/>
+        <v>2.7764451051977934</v>
+      </c>
+      <c r="R24" s="39">
+        <f t="shared" si="11"/>
+        <v>1.3562017825277202E-2</v>
+      </c>
+      <c r="S24" s="39">
+        <f t="shared" si="11"/>
+        <v>5.1562499999999997E-2</v>
+      </c>
+      <c r="T24" s="25">
+        <f t="shared" si="11"/>
+        <v>5.3316223926147814E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>38628</v>
       </c>
@@ -12252,23 +12784,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="21">
-        <f>T11</f>
-        <v>47.266146753283905</v>
-      </c>
-      <c r="O25">
-        <f>T16</f>
-        <v>1.2169999999999999</v>
-      </c>
-      <c r="P25" s="21">
-        <f>K3</f>
-        <v>1.1345277777777776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40384</v>
       </c>
@@ -12297,23 +12814,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M26" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="21">
-        <f>T12</f>
-        <v>47.371670178035082</v>
-      </c>
-      <c r="O26">
-        <f>T17</f>
-        <v>1.2193999999999998</v>
-      </c>
-      <c r="P26" s="21">
-        <f>L3</f>
-        <v>1.1438028169014087</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>42132</v>
       </c>
@@ -12342,20 +12844,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="2">
-        <v>48.54</v>
-      </c>
-      <c r="O27" s="10">
-        <v>1.28</v>
-      </c>
-      <c r="P27" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O27" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>43880</v>
       </c>
@@ -12384,8 +12880,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <f>O23-O21</f>
+        <v>1.2169999999999999</v>
+      </c>
+      <c r="P28" s="25">
+        <f>SQRT(T21^2*O21^2+O23^2*T23^2)</f>
+        <v>3.806928503040611E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>45644</v>
       </c>
@@ -12414,8 +12921,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="21">
+        <f>O24-O22</f>
+        <v>1.2194</v>
+      </c>
+      <c r="P29" s="25">
+        <f>SQRT(T22^2*O22^2+O24^2*T24^2)</f>
+        <v>9.81406701112707E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>47404</v>
       </c>
@@ -12445,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>49172</v>
       </c>
@@ -12475,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>50940</v>
       </c>
@@ -12505,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="37">
         <v>52708</v>
       </c>
@@ -12535,7 +13053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>54476</v>
       </c>
@@ -12565,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>56228</v>
       </c>
@@ -12595,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>57996</v>
       </c>
@@ -12625,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>59764</v>
       </c>
@@ -12655,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>61512</v>
       </c>
@@ -12685,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>63264</v>
       </c>
@@ -12715,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>65024</v>
       </c>
@@ -12745,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>66772</v>
       </c>
@@ -12775,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>68524</v>
       </c>
@@ -12805,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>70292</v>
       </c>
@@ -12835,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>72060</v>
       </c>
@@ -12865,7 +13383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
         <v>73828</v>
       </c>
@@ -12895,7 +13413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>75596</v>
       </c>
@@ -12925,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>77364</v>
       </c>
@@ -12955,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>79132</v>
       </c>
@@ -12985,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>80880</v>
       </c>
@@ -13015,7 +13533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>82628</v>
       </c>
@@ -13045,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>84388</v>
       </c>
@@ -13067,15 +13585,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <f t="shared" ref="G51:G73" si="6">B51&gt;1.7</f>
+        <f t="shared" ref="G51:G73" si="12">B51&gt;1.7</f>
         <v>0</v>
       </c>
       <c r="H51" t="b">
-        <f t="shared" ref="H51:H73" si="7">D51&gt;1.7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H51:H73" si="13">D51&gt;1.7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>86132</v>
       </c>
@@ -13097,15 +13615,15 @@
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H52" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>87884</v>
       </c>
@@ -13127,15 +13645,15 @@
         <v>0</v>
       </c>
       <c r="G53" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H53" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>89636</v>
       </c>
@@ -13157,15 +13675,15 @@
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H54" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>91420</v>
       </c>
@@ -13187,15 +13705,15 @@
         <v>0</v>
       </c>
       <c r="G55" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H55" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="37">
         <v>93172</v>
       </c>
@@ -13217,15 +13735,15 @@
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H56" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>94980</v>
       </c>
@@ -13247,15 +13765,15 @@
         <v>0</v>
       </c>
       <c r="G57" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H57" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>96796</v>
       </c>
@@ -13277,15 +13795,15 @@
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H58" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>98612</v>
       </c>
@@ -13307,15 +13825,15 @@
         <v>0</v>
       </c>
       <c r="G59" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H59" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>100420</v>
       </c>
@@ -13337,15 +13855,15 @@
         <v>0</v>
       </c>
       <c r="G60" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H60" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>102224</v>
       </c>
@@ -13367,15 +13885,15 @@
         <v>0</v>
       </c>
       <c r="G61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H61" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>104028</v>
       </c>
@@ -13397,15 +13915,15 @@
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H62" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="38">
         <v>105832</v>
       </c>
@@ -13427,15 +13945,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H63" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="38">
         <v>107636</v>
       </c>
@@ -13457,15 +13975,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H64" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="38">
         <v>109444</v>
       </c>
@@ -13487,15 +14005,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H65" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="38">
         <v>111260</v>
       </c>
@@ -13517,15 +14035,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H66" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="38">
         <v>113076</v>
       </c>
@@ -13547,15 +14065,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H67" s="38" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="38">
         <v>114884</v>
       </c>
@@ -13569,23 +14087,23 @@
         <v>1.76</v>
       </c>
       <c r="E68" s="38" t="b">
-        <f t="shared" ref="E68:E74" si="8">B68&lt;0.6</f>
+        <f t="shared" ref="E68:E74" si="14">B68&lt;0.6</f>
         <v>0</v>
       </c>
       <c r="F68" s="38" t="b">
-        <f t="shared" ref="F68:F73" si="9">D68&lt;0.6</f>
+        <f t="shared" ref="F68:F73" si="15">D68&lt;0.6</f>
         <v>0</v>
       </c>
       <c r="G68" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H68" s="38" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="38">
         <v>116692</v>
       </c>
@@ -13599,23 +14117,23 @@
         <v>1.6080000000000001</v>
       </c>
       <c r="E69" s="38" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F69" s="38" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G69" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H69" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="38">
         <v>118508</v>
       </c>
@@ -13629,23 +14147,23 @@
         <v>1.3540000000000001</v>
       </c>
       <c r="E70" s="38" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F70" s="38" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G70" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H70" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="38">
         <v>120324</v>
       </c>
@@ -13659,23 +14177,23 @@
         <v>1.0629999999999999</v>
       </c>
       <c r="E71" s="38" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F71" s="38" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G71" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H71" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
         <v>122140</v>
       </c>
@@ -13689,23 +14207,23 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="E72" s="38" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F72" s="38" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G72" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H72" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="38">
         <v>123920</v>
       </c>
@@ -13719,23 +14237,23 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="E73" s="38" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F73" s="38" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G73" s="38" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H73" s="38" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
         <v>125712</v>
       </c>
@@ -13745,7 +14263,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F74" s="38"/>
@@ -13756,11 +14274,12 @@
       <c r="H74" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="O2:S2"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="O13:S13"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/Lab 2/02_Digital_Data_Collection_Tables.xlsx
+++ b/Lab 2/02_Digital_Data_Collection_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0A7EA7-16B3-40A2-B72E-76BA397FA4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969B7BB-60B0-4E82-9AB1-9810B1B5B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -541,6 +541,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,26 +573,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B5DFEB-27AC-C14C-9885-2E931D118C39}">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="46">
         <v>0.10199999999999999</v>
       </c>
       <c r="B5">
@@ -1087,7 +1087,7 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="47"/>
       <c r="B6">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="47"/>
       <c r="B7">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="47"/>
       <c r="B8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="47"/>
       <c r="B9">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="47"/>
       <c r="B10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="47"/>
       <c r="B11">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="47"/>
       <c r="B12">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="47"/>
       <c r="B13">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="49">
         <v>1.024</v>
       </c>
       <c r="B15">
@@ -1318,7 +1318,7 @@
       <c r="E15" s="2">
         <v>1.016</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="42"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
@@ -1326,7 +1326,7 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="50"/>
       <c r="B16">
         <v>1.0249999999999999</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="E16" s="2">
         <v>1.016</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="43"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
@@ -1347,7 +1347,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="50"/>
       <c r="B17">
         <v>1.0249999999999999</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="E17" s="2">
         <v>1.016</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="43"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
@@ -1368,7 +1368,7 @@
       <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="50"/>
       <c r="B18">
         <v>1.0249999999999999</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="E18" s="2">
         <v>1.016</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="43"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
@@ -1389,7 +1389,7 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="50"/>
       <c r="B19">
         <v>1.0249999999999999</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="E19" s="2">
         <v>1.016</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="43"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="16"/>
@@ -1410,7 +1410,7 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="50"/>
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="E20" s="2">
         <v>1.016</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="43"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="16"/>
@@ -1431,7 +1431,7 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="50"/>
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="E21" s="2">
         <v>1.016</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="43"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="16"/>
@@ -1452,7 +1452,7 @@
       <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="50"/>
       <c r="B22">
         <v>1.0249999999999999</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="E22" s="2">
         <v>1.016</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="43"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="16"/>
@@ -1473,7 +1473,7 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="50"/>
       <c r="B23">
         <v>1.0249999999999999</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="E23" s="2">
         <v>1.016</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="43"/>
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="16"/>
@@ -1494,7 +1494,7 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="10">
         <v>1.0249999999999999</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="E24" s="2">
         <v>1.016</v>
       </c>
-      <c r="F24" s="48"/>
+      <c r="F24" s="44"/>
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="16"/>
@@ -1515,7 +1515,7 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="46">
         <v>1.8</v>
       </c>
       <c r="B25">
@@ -1530,7 +1530,7 @@
       <c r="E25" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="42"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -1538,7 +1538,7 @@
       <c r="S25" s="16"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="47"/>
       <c r="B26">
         <v>1.821</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="E26" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="43"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -1559,7 +1559,7 @@
       <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="47"/>
       <c r="B27">
         <v>1.8120000000000001</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="E27" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="43"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -1580,7 +1580,7 @@
       <c r="S27" s="16"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="47"/>
       <c r="B28">
         <v>1.8160000000000001</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="E28" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="43"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
@@ -1601,7 +1601,7 @@
       <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="47"/>
       <c r="B29">
         <v>1.8120000000000001</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="E29" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="43"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
@@ -1622,7 +1622,7 @@
       <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="47"/>
       <c r="B30">
         <v>1.8120000000000001</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="E30" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="43"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
@@ -1643,7 +1643,7 @@
       <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="47"/>
       <c r="B31">
         <v>1.8160000000000001</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="E31" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="43"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
@@ -1664,7 +1664,7 @@
       <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="47"/>
       <c r="B32">
         <v>1.8160000000000001</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="E32" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="43"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
@@ -1685,7 +1685,7 @@
       <c r="S32" s="16"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="47"/>
       <c r="B33">
         <v>1.8120000000000001</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="E33" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="43"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
@@ -1706,7 +1706,7 @@
       <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="10">
         <v>1.8160000000000001</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="E34" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="44"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -1727,7 +1727,7 @@
       <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="A35" s="46">
         <v>2.5</v>
       </c>
       <c r="B35" s="21">
@@ -1742,14 +1742,14 @@
       <c r="E35" s="22">
         <v>2.5</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="42"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="21">
         <v>2.524</v>
       </c>
@@ -1762,14 +1762,14 @@
       <c r="E36" s="12">
         <v>2.5</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="43"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="21">
         <v>2.4950000000000001</v>
       </c>
@@ -1782,14 +1782,14 @@
       <c r="E37" s="12">
         <v>2.5</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="43"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="21">
         <v>2.524</v>
       </c>
@@ -1802,14 +1802,14 @@
       <c r="E38" s="12">
         <v>2.5</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="43"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="21">
         <v>2.5099999999999998</v>
       </c>
@@ -1822,14 +1822,14 @@
       <c r="E39" s="12">
         <v>2.5</v>
       </c>
-      <c r="F39" s="47"/>
+      <c r="F39" s="43"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="21">
         <v>2.52</v>
       </c>
@@ -1842,14 +1842,14 @@
       <c r="E40" s="12">
         <v>2.5</v>
       </c>
-      <c r="F40" s="47"/>
+      <c r="F40" s="43"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="21">
         <v>2.5539999999999998</v>
       </c>
@@ -1862,14 +1862,14 @@
       <c r="E41" s="12">
         <v>2.5</v>
       </c>
-      <c r="F41" s="47"/>
+      <c r="F41" s="43"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="21">
         <v>2.524</v>
       </c>
@@ -1882,14 +1882,14 @@
       <c r="E42" s="12">
         <v>2.5</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="43"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="21">
         <v>2.5339999999999998</v>
       </c>
@@ -1902,14 +1902,14 @@
       <c r="E43" s="12">
         <v>2.5</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="43"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="13">
         <v>2.52</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="E44" s="13">
         <v>2.5</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="44"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -1934,20 +1934,20 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2435,7 +2435,7 @@
       <c r="E62" s="2">
         <v>1.016</v>
       </c>
-      <c r="F62" s="46"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2470,7 +2470,7 @@
       <c r="E63" s="2">
         <v>1.016</v>
       </c>
-      <c r="F63" s="47"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2505,7 +2505,7 @@
       <c r="E64" s="2">
         <v>1.016</v>
       </c>
-      <c r="F64" s="47"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2540,7 +2540,7 @@
       <c r="E65" s="2">
         <v>1.016</v>
       </c>
-      <c r="F65" s="47"/>
+      <c r="F65" s="43"/>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2575,7 +2575,7 @@
       <c r="E66" s="2">
         <v>1.016</v>
       </c>
-      <c r="F66" s="47"/>
+      <c r="F66" s="43"/>
       <c r="G66" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2610,7 +2610,7 @@
       <c r="E67" s="2">
         <v>1.016</v>
       </c>
-      <c r="F67" s="47"/>
+      <c r="F67" s="43"/>
       <c r="G67" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2645,7 +2645,7 @@
       <c r="E68" s="2">
         <v>1.016</v>
       </c>
-      <c r="F68" s="47"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2680,7 +2680,7 @@
       <c r="E69" s="2">
         <v>1.016</v>
       </c>
-      <c r="F69" s="47"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2715,7 +2715,7 @@
       <c r="E70" s="2">
         <v>1.016</v>
       </c>
-      <c r="F70" s="47"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2750,7 +2750,7 @@
       <c r="E71" s="2">
         <v>1.016</v>
       </c>
-      <c r="F71" s="48"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2785,7 +2785,7 @@
       <c r="E72" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="42"/>
       <c r="G72" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2820,7 +2820,7 @@
       <c r="E73" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F73" s="47"/>
+      <c r="F73" s="43"/>
       <c r="G73" s="21">
         <f t="shared" si="1"/>
         <v>2.0999999999999908E-2</v>
@@ -2855,7 +2855,7 @@
       <c r="E74" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F74" s="47"/>
+      <c r="F74" s="43"/>
       <c r="G74" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2890,7 +2890,7 @@
       <c r="E75" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F75" s="47"/>
+      <c r="F75" s="43"/>
       <c r="G75" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2925,7 +2925,7 @@
       <c r="E76" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F76" s="47"/>
+      <c r="F76" s="43"/>
       <c r="G76" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2960,7 +2960,7 @@
       <c r="E77" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F77" s="47"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2995,7 +2995,7 @@
       <c r="E78" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F78" s="47"/>
+      <c r="F78" s="43"/>
       <c r="G78" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3030,7 +3030,7 @@
       <c r="E79" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F79" s="47"/>
+      <c r="F79" s="43"/>
       <c r="G79" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3083,7 +3083,7 @@
       <c r="E80" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F80" s="47"/>
+      <c r="F80" s="43"/>
       <c r="G80" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -3136,7 +3136,7 @@
       <c r="E81" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F81" s="48"/>
+      <c r="F81" s="44"/>
       <c r="G81" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3189,7 +3189,7 @@
       <c r="E82" s="22">
         <v>2.5</v>
       </c>
-      <c r="F82" s="46"/>
+      <c r="F82" s="42"/>
       <c r="G82" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3242,7 +3242,7 @@
       <c r="E83" s="12">
         <v>2.5</v>
       </c>
-      <c r="F83" s="47"/>
+      <c r="F83" s="43"/>
       <c r="G83" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3295,7 +3295,7 @@
       <c r="E84" s="12">
         <v>2.5</v>
       </c>
-      <c r="F84" s="47"/>
+      <c r="F84" s="43"/>
       <c r="G84" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3348,7 +3348,7 @@
       <c r="E85" s="12">
         <v>2.5</v>
       </c>
-      <c r="F85" s="47"/>
+      <c r="F85" s="43"/>
       <c r="G85" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3401,7 +3401,7 @@
       <c r="E86" s="12">
         <v>2.5</v>
       </c>
-      <c r="F86" s="47"/>
+      <c r="F86" s="43"/>
       <c r="G86" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
@@ -3454,7 +3454,7 @@
       <c r="E87" s="12">
         <v>2.5</v>
       </c>
-      <c r="F87" s="47"/>
+      <c r="F87" s="43"/>
       <c r="G87" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3507,7 +3507,7 @@
       <c r="E88" s="12">
         <v>2.5</v>
       </c>
-      <c r="F88" s="47"/>
+      <c r="F88" s="43"/>
       <c r="G88" s="21">
         <f t="shared" si="1"/>
         <v>5.3999999999999826E-2</v>
@@ -3560,7 +3560,7 @@
       <c r="E89" s="12">
         <v>2.5</v>
       </c>
-      <c r="F89" s="47"/>
+      <c r="F89" s="43"/>
       <c r="G89" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3610,7 +3610,7 @@
       <c r="E90" s="12">
         <v>2.5</v>
       </c>
-      <c r="F90" s="47"/>
+      <c r="F90" s="43"/>
       <c r="G90" s="21">
         <f t="shared" si="1"/>
         <v>3.3999999999999808E-2</v>
@@ -3660,7 +3660,7 @@
       <c r="E91" s="13">
         <v>2.5</v>
       </c>
-      <c r="F91" s="48"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -5473,11 +5473,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F81"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A25:A34"/>
@@ -5485,6 +5480,11 @@
     <mergeCell ref="F15:F24"/>
     <mergeCell ref="F25:F34"/>
     <mergeCell ref="F35:F44"/>
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5550,14 +5550,14 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="52"/>
       <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
@@ -11149,7 +11149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DF4A1-8070-4F58-A040-71BC06857F9D}">
   <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -11175,10 +11175,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="52"/>
       <c r="K1" s="33" t="s">
         <v>46</v>
       </c>
@@ -11217,13 +11217,13 @@
       <c r="L2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
@@ -11372,7 +11372,7 @@
         <f>A62-A50</f>
         <v>21400</v>
       </c>
-      <c r="T5" s="52">
+      <c r="T5" s="40">
         <f>AVERAGE(O5:S5)</f>
         <v>21157.599999999999</v>
       </c>
@@ -11388,13 +11388,13 @@
         <f>V5*U5/SQRT(5)</f>
         <v>182.10093666651801</v>
       </c>
-      <c r="AB5" s="51" t="s">
+      <c r="AB5" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -11448,7 +11448,7 @@
         <f>C62-C50</f>
         <v>21304</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="40">
         <f>AVERAGE(O6:S6)</f>
         <v>21110.400000000001</v>
       </c>
@@ -11526,23 +11526,23 @@
         <v>10</v>
       </c>
       <c r="AB7" s="21">
-        <f>1/O5*10^6</f>
+        <f t="shared" ref="AB7:AF8" si="4">1/O5*10^6</f>
         <v>47.61904761904762</v>
       </c>
       <c r="AC7" s="21">
-        <f>1/P5*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.321597577134206</v>
       </c>
       <c r="AD7" s="21">
-        <f>1/Q5*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.321597577134206</v>
       </c>
       <c r="AE7" s="21">
-        <f>1/R5*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.339519030486649</v>
       </c>
       <c r="AF7" s="21">
-        <f>1/S5*10^6</f>
+        <f t="shared" si="4"/>
         <v>46.728971962616818</v>
       </c>
       <c r="AG7">
@@ -11601,23 +11601,23 @@
         <v>5</v>
       </c>
       <c r="AB8" s="21">
-        <f>1/O6*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.819433817903594</v>
       </c>
       <c r="AC8" s="21">
-        <f>1/P6*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.384382107657316</v>
       </c>
       <c r="AD8" s="21">
-        <f>1/Q6*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.312641937925811</v>
       </c>
       <c r="AE8" s="21">
-        <f>1/R6*10^6</f>
+        <f t="shared" si="4"/>
         <v>47.402351156617364</v>
       </c>
       <c r="AF8" s="21">
-        <f>1/S6*10^6</f>
+        <f t="shared" si="4"/>
         <v>46.939541870071345</v>
       </c>
       <c r="AG8">
@@ -11727,13 +11727,13 @@
         <f>W5/(T5)^2*10^6</f>
         <v>0.40679853031830099</v>
       </c>
-      <c r="AB10" s="51" t="s">
+      <c r="AB10" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -11871,7 +11871,7 @@
         <v>2.7764451051977934</v>
       </c>
       <c r="AJ12" s="25">
-        <f t="shared" ref="AJ12:AJ13" si="4">AI12*AH12/SQRT(5)</f>
+        <f t="shared" ref="AJ12:AJ13" si="5">AI12*AH12/SQRT(5)</f>
         <v>2.0098087593650941E-2</v>
       </c>
       <c r="AK12" s="25">
@@ -11908,13 +11908,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
       <c r="AA13">
         <v>5</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>2.7764451051977934</v>
       </c>
       <c r="AJ13" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1373217966375407E-2</v>
       </c>
       <c r="AK13" s="25">
@@ -12155,19 +12155,19 @@
         <v>0.55100000000000005</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:T18" si="5">AVERAGE(O16:S16)</f>
+        <f t="shared" ref="T16:T18" si="6">AVERAGE(O16:S16)</f>
         <v>0.54200000000000004</v>
       </c>
       <c r="U16" s="31">
-        <f t="shared" ref="U16:U18" si="6">_xlfn.STDEV.S(O16:S16)</f>
+        <f t="shared" ref="U16:U18" si="7">_xlfn.STDEV.S(O16:S16)</f>
         <v>8.3066238629180816E-3</v>
       </c>
       <c r="V16" s="25">
-        <f t="shared" ref="V16:V18" si="7">-_xlfn.T.INV(0.025, 4)</f>
+        <f t="shared" ref="V16:V18" si="8">-_xlfn.T.INV(0.025, 4)</f>
         <v>2.7764451051977934</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" ref="W16:W18" si="8">V16*U16/SQRT(5)</f>
+        <f t="shared" ref="W16:W18" si="9">V16*U16/SQRT(5)</f>
         <v>1.0314035797205662E-2</v>
       </c>
       <c r="X16" s="39">
@@ -12175,7 +12175,7 @@
         <v>5.1562499999999997E-2</v>
       </c>
       <c r="Y16" s="25">
-        <f t="shared" ref="Y16:Y18" si="9">SQRT(W16^2+X16^2)</f>
+        <f t="shared" ref="Y16:Y18" si="10">SQRT(W16^2+X16^2)</f>
         <v>5.2583939950103013E-2</v>
       </c>
       <c r="AG16" t="s">
@@ -12238,19 +12238,19 @@
         <v>1.76</v>
       </c>
       <c r="T17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7609999999999999</v>
       </c>
       <c r="U17" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.2736184954956696E-3</v>
       </c>
       <c r="V17" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7764451051977934</v>
       </c>
       <c r="W17" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1514718218933529E-2</v>
       </c>
       <c r="X17" s="39">
@@ -12258,7 +12258,7 @@
         <v>1.6999999999999904E-2</v>
       </c>
       <c r="Y17" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0532626126763143E-2</v>
       </c>
       <c r="AG17" t="s">
@@ -12327,19 +12327,19 @@
         <v>1.766</v>
       </c>
       <c r="T18" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7614000000000001</v>
       </c>
       <c r="U18" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0922453936730473E-2</v>
       </c>
       <c r="V18" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7764451051977934</v>
       </c>
       <c r="W18" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3562017825277202E-2</v>
       </c>
       <c r="X18" s="39">
@@ -12347,7 +12347,7 @@
         <v>5.1562499999999997E-2</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3316223926147814E-2</v>
       </c>
       <c r="AF18" t="s">
@@ -12451,28 +12451,28 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="53" t="str">
-        <f t="shared" ref="O20:T24" si="10">T14</f>
+      <c r="O20" s="41" t="str">
+        <f t="shared" ref="O20:T20" si="11">T14</f>
         <v>Nominal Value</v>
       </c>
-      <c r="P20" s="53" t="str">
-        <f t="shared" si="10"/>
+      <c r="P20" s="41" t="str">
+        <f t="shared" si="11"/>
         <v>Stdev</v>
       </c>
-      <c r="Q20" s="53" t="str">
-        <f t="shared" si="10"/>
+      <c r="Q20" s="41" t="str">
+        <f t="shared" si="11"/>
         <v>T INV</v>
       </c>
-      <c r="R20" s="53" t="str">
-        <f t="shared" si="10"/>
+      <c r="R20" s="41" t="str">
+        <f t="shared" si="11"/>
         <v>P_x</v>
       </c>
-      <c r="S20" s="53" t="str">
-        <f t="shared" si="10"/>
+      <c r="S20" s="41" t="str">
+        <f t="shared" si="11"/>
         <v>B_x</v>
       </c>
-      <c r="T20" s="53" t="str">
-        <f t="shared" si="10"/>
+      <c r="T20" s="41" t="str">
+        <f t="shared" si="11"/>
         <v>U_x</v>
       </c>
       <c r="AA20" s="33" t="s">
@@ -12518,27 +12518,27 @@
         <v>84</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:T24" si="11">T15</f>
+        <f t="shared" ref="O21:T24" si="12">T15</f>
         <v>0.54400000000000004</v>
       </c>
       <c r="P21" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1113055385446446E-2</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7764451051977934</v>
       </c>
       <c r="R21" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3798680782153308E-2</v>
       </c>
       <c r="S21" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6999999999999904E-2</v>
       </c>
       <c r="T21" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1895286966097608E-2</v>
       </c>
       <c r="Z21" s="33" t="s">
@@ -12590,27 +12590,27 @@
         <v>85</v>
       </c>
       <c r="O22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54200000000000004</v>
       </c>
       <c r="P22" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3066238629180816E-3</v>
       </c>
       <c r="Q22" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7764451051977934</v>
       </c>
       <c r="R22" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0314035797205662E-2</v>
       </c>
       <c r="S22" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1562499999999997E-2</v>
       </c>
       <c r="T22" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.2583939950103013E-2</v>
       </c>
       <c r="Z22" s="33" t="s">
@@ -12662,27 +12662,27 @@
         <v>86</v>
       </c>
       <c r="O23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7609999999999999</v>
       </c>
       <c r="P23" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2736184954956696E-3</v>
       </c>
       <c r="Q23" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7764451051977934</v>
       </c>
       <c r="R23" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1514718218933529E-2</v>
       </c>
       <c r="S23" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6999999999999904E-2</v>
       </c>
       <c r="T23" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0532626126763143E-2</v>
       </c>
       <c r="Z23" t="s">
@@ -12731,27 +12731,27 @@
         <v>87</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7614000000000001</v>
       </c>
       <c r="P24" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0922453936730473E-2</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7764451051977934</v>
       </c>
       <c r="R24" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3562017825277202E-2</v>
       </c>
       <c r="S24" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1562499999999997E-2</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3316223926147814E-2</v>
       </c>
     </row>
@@ -12844,7 +12844,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="41" t="s">
         <v>89</v>
       </c>
       <c r="P27" t="s">
@@ -13585,11 +13585,11 @@
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <f t="shared" ref="G51:G73" si="12">B51&gt;1.7</f>
+        <f t="shared" ref="G51:G73" si="13">B51&gt;1.7</f>
         <v>0</v>
       </c>
       <c r="H51" t="b">
-        <f t="shared" ref="H51:H73" si="13">D51&gt;1.7</f>
+        <f t="shared" ref="H51:H73" si="14">D51&gt;1.7</f>
         <v>0</v>
       </c>
     </row>
@@ -13615,11 +13615,11 @@
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H52" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13645,11 +13645,11 @@
         <v>0</v>
       </c>
       <c r="G53" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H53" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13675,11 +13675,11 @@
         <v>0</v>
       </c>
       <c r="G54" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H54" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13705,11 +13705,11 @@
         <v>0</v>
       </c>
       <c r="G55" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H55" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13735,11 +13735,11 @@
         <v>0</v>
       </c>
       <c r="G56" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H56" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13765,11 +13765,11 @@
         <v>0</v>
       </c>
       <c r="G57" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H57" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13795,11 +13795,11 @@
         <v>0</v>
       </c>
       <c r="G58" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H58" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13825,11 +13825,11 @@
         <v>0</v>
       </c>
       <c r="G59" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H59" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13855,11 +13855,11 @@
         <v>0</v>
       </c>
       <c r="G60" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H60" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13885,11 +13885,11 @@
         <v>0</v>
       </c>
       <c r="G61" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H61" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13915,11 +13915,11 @@
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H62" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13945,11 +13945,11 @@
         <v>0</v>
       </c>
       <c r="G63" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H63" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13975,11 +13975,11 @@
         <v>0</v>
       </c>
       <c r="G64" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H64" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14005,11 +14005,11 @@
         <v>0</v>
       </c>
       <c r="G65" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H65" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14035,11 +14035,11 @@
         <v>0</v>
       </c>
       <c r="G66" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H66" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14065,11 +14065,11 @@
         <v>0</v>
       </c>
       <c r="G67" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H67" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14087,19 +14087,19 @@
         <v>1.76</v>
       </c>
       <c r="E68" s="38" t="b">
-        <f t="shared" ref="E68:E74" si="14">B68&lt;0.6</f>
+        <f t="shared" ref="E68:E74" si="15">B68&lt;0.6</f>
         <v>0</v>
       </c>
       <c r="F68" s="38" t="b">
-        <f t="shared" ref="F68:F73" si="15">D68&lt;0.6</f>
+        <f t="shared" ref="F68:F73" si="16">D68&lt;0.6</f>
         <v>0</v>
       </c>
       <c r="G68" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H68" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -14117,19 +14117,19 @@
         <v>1.6080000000000001</v>
       </c>
       <c r="E69" s="38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="38" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="38" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="38" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="38" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="38" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="38" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14147,19 +14147,19 @@
         <v>1.3540000000000001</v>
       </c>
       <c r="E70" s="38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="38" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="38" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="38" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="38" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="38" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="38" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14177,19 +14177,19 @@
         <v>1.0629999999999999</v>
       </c>
       <c r="E71" s="38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="38" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="38" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="38" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="38" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="38" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="38" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14207,19 +14207,19 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="E72" s="38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="38" t="b">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="38" t="b">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="38" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="38" t="b">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="38" t="b">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="38" t="b">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -14237,19 +14237,19 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="E73" s="38" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="F73" s="38" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
+      <c r="F73" s="38" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
       <c r="G73" s="38" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H73" s="38" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F74" s="38"/>

--- a/Lab 2/02_Digital_Data_Collection_Tables.xlsx
+++ b/Lab 2/02_Digital_Data_Collection_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\Lab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969B7BB-60B0-4E82-9AB1-9810B1B5B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D865B132-559D-42D6-8D94-6D2A2EBE50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,18 +543,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,6 +560,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="K40" sqref="K39:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="42">
         <v>0.10199999999999999</v>
       </c>
       <c r="B5">
@@ -1087,7 +1087,7 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="43"/>
       <c r="B6">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="43"/>
       <c r="B7">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="43"/>
       <c r="B8">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="43"/>
       <c r="B9">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="43"/>
       <c r="B10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="S10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="43"/>
       <c r="B11">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="S11" s="16"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="43"/>
       <c r="B12">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="43"/>
       <c r="B13">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="45">
         <v>1.024</v>
       </c>
       <c r="B15">
@@ -1318,7 +1318,7 @@
       <c r="E15" s="2">
         <v>1.016</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="48"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
@@ -1326,7 +1326,7 @@
       <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="46"/>
       <c r="B16">
         <v>1.0249999999999999</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="E16" s="2">
         <v>1.016</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="49"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
@@ -1347,7 +1347,7 @@
       <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="46"/>
       <c r="B17">
         <v>1.0249999999999999</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="E17" s="2">
         <v>1.016</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="49"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
@@ -1368,7 +1368,7 @@
       <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="46"/>
       <c r="B18">
         <v>1.0249999999999999</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="E18" s="2">
         <v>1.016</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="49"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
@@ -1389,7 +1389,7 @@
       <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="46"/>
       <c r="B19">
         <v>1.0249999999999999</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="E19" s="2">
         <v>1.016</v>
       </c>
-      <c r="F19" s="43"/>
+      <c r="F19" s="49"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="16"/>
@@ -1410,7 +1410,7 @@
       <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="46"/>
       <c r="B20">
         <v>1.0249999999999999</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="E20" s="2">
         <v>1.016</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="49"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="16"/>
@@ -1431,7 +1431,7 @@
       <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="46"/>
       <c r="B21">
         <v>1.0249999999999999</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="E21" s="2">
         <v>1.016</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="49"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="16"/>
@@ -1452,7 +1452,7 @@
       <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="46"/>
       <c r="B22">
         <v>1.0249999999999999</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="E22" s="2">
         <v>1.016</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="49"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="16"/>
@@ -1473,7 +1473,7 @@
       <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="46"/>
       <c r="B23">
         <v>1.0249999999999999</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="E23" s="2">
         <v>1.016</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="49"/>
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="16"/>
@@ -1494,7 +1494,7 @@
       <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="10">
         <v>1.0249999999999999</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="E24" s="2">
         <v>1.016</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="50"/>
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="16"/>
@@ -1515,7 +1515,7 @@
       <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="42">
         <v>1.8</v>
       </c>
       <c r="B25">
@@ -1530,7 +1530,7 @@
       <c r="E25" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="48"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -1538,7 +1538,7 @@
       <c r="S25" s="16"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="43"/>
       <c r="B26">
         <v>1.821</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="E26" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="49"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -1559,7 +1559,7 @@
       <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="43"/>
       <c r="B27">
         <v>1.8120000000000001</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="E27" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="49"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
@@ -1580,7 +1580,7 @@
       <c r="S27" s="16"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="43"/>
       <c r="B28">
         <v>1.8160000000000001</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="E28" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="49"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
@@ -1601,7 +1601,7 @@
       <c r="S28" s="16"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="43"/>
       <c r="B29">
         <v>1.8120000000000001</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="E29" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F29" s="43"/>
+      <c r="F29" s="49"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
@@ -1622,7 +1622,7 @@
       <c r="S29" s="16"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="43"/>
       <c r="B30">
         <v>1.8120000000000001</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="E30" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="49"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
@@ -1643,7 +1643,7 @@
       <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31">
         <v>1.8160000000000001</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="E31" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="49"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
@@ -1664,7 +1664,7 @@
       <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32">
         <v>1.8160000000000001</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="E32" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="49"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
@@ -1685,7 +1685,7 @@
       <c r="S32" s="16"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33">
         <v>1.8120000000000001</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="E33" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="49"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
@@ -1706,7 +1706,7 @@
       <c r="S33" s="16"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="10">
         <v>1.8160000000000001</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="E34" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="50"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
@@ -1727,7 +1727,7 @@
       <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="46">
+      <c r="A35" s="42">
         <v>2.5</v>
       </c>
       <c r="B35" s="21">
@@ -1742,14 +1742,14 @@
       <c r="E35" s="22">
         <v>2.5</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="48"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="21">
         <v>2.524</v>
       </c>
@@ -1762,14 +1762,14 @@
       <c r="E36" s="12">
         <v>2.5</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="49"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="21">
         <v>2.4950000000000001</v>
       </c>
@@ -1782,14 +1782,14 @@
       <c r="E37" s="12">
         <v>2.5</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="49"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="21">
         <v>2.524</v>
       </c>
@@ -1802,14 +1802,14 @@
       <c r="E38" s="12">
         <v>2.5</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="49"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="21">
         <v>2.5099999999999998</v>
       </c>
@@ -1822,14 +1822,14 @@
       <c r="E39" s="12">
         <v>2.5</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="49"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="21">
         <v>2.52</v>
       </c>
@@ -1842,14 +1842,14 @@
       <c r="E40" s="12">
         <v>2.5</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" s="49"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="21">
         <v>2.5539999999999998</v>
       </c>
@@ -1862,14 +1862,14 @@
       <c r="E41" s="12">
         <v>2.5</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="49"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="21">
         <v>2.524</v>
       </c>
@@ -1882,14 +1882,14 @@
       <c r="E42" s="12">
         <v>2.5</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="49"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="21">
         <v>2.5339999999999998</v>
       </c>
@@ -1902,14 +1902,14 @@
       <c r="E43" s="12">
         <v>2.5</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" s="49"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="13">
         <v>2.52</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="E44" s="13">
         <v>2.5</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="50"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
@@ -1934,20 +1934,20 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
     </row>
     <row r="50" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2435,7 +2435,7 @@
       <c r="E62" s="2">
         <v>1.016</v>
       </c>
-      <c r="F62" s="42"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2470,7 +2470,7 @@
       <c r="E63" s="2">
         <v>1.016</v>
       </c>
-      <c r="F63" s="43"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2505,7 +2505,7 @@
       <c r="E64" s="2">
         <v>1.016</v>
       </c>
-      <c r="F64" s="43"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2540,7 +2540,7 @@
       <c r="E65" s="2">
         <v>1.016</v>
       </c>
-      <c r="F65" s="43"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2575,7 +2575,7 @@
       <c r="E66" s="2">
         <v>1.016</v>
       </c>
-      <c r="F66" s="43"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2610,7 +2610,7 @@
       <c r="E67" s="2">
         <v>1.016</v>
       </c>
-      <c r="F67" s="43"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2645,7 +2645,7 @@
       <c r="E68" s="2">
         <v>1.016</v>
       </c>
-      <c r="F68" s="43"/>
+      <c r="F68" s="49"/>
       <c r="G68" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2680,7 +2680,7 @@
       <c r="E69" s="2">
         <v>1.016</v>
       </c>
-      <c r="F69" s="43"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2715,7 +2715,7 @@
       <c r="E70" s="2">
         <v>1.016</v>
       </c>
-      <c r="F70" s="43"/>
+      <c r="F70" s="49"/>
       <c r="G70" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2750,7 +2750,7 @@
       <c r="E71" s="2">
         <v>1.016</v>
       </c>
-      <c r="F71" s="44"/>
+      <c r="F71" s="50"/>
       <c r="G71" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999988987E-4</v>
@@ -2785,7 +2785,7 @@
       <c r="E72" s="11">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="48"/>
       <c r="G72" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2820,7 +2820,7 @@
       <c r="E73" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F73" s="43"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="21">
         <f t="shared" si="1"/>
         <v>2.0999999999999908E-2</v>
@@ -2855,7 +2855,7 @@
       <c r="E74" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F74" s="43"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2890,7 +2890,7 @@
       <c r="E75" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F75" s="43"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -2925,7 +2925,7 @@
       <c r="E76" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F76" s="43"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2960,7 +2960,7 @@
       <c r="E77" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F77" s="43"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -2995,7 +2995,7 @@
       <c r="E78" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F78" s="43"/>
+      <c r="F78" s="49"/>
       <c r="G78" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3030,7 +3030,7 @@
       <c r="E79" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F79" s="43"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3083,7 +3083,7 @@
       <c r="E80" s="2">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F80" s="43"/>
+      <c r="F80" s="49"/>
       <c r="G80" s="21">
         <f t="shared" si="1"/>
         <v>1.2000000000000011E-2</v>
@@ -3136,7 +3136,7 @@
       <c r="E81" s="10">
         <v>1.7969999999999999</v>
       </c>
-      <c r="F81" s="44"/>
+      <c r="F81" s="50"/>
       <c r="G81" s="21">
         <f t="shared" si="1"/>
         <v>1.6000000000000014E-2</v>
@@ -3189,7 +3189,7 @@
       <c r="E82" s="22">
         <v>2.5</v>
       </c>
-      <c r="F82" s="42"/>
+      <c r="F82" s="48"/>
       <c r="G82" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3242,7 +3242,7 @@
       <c r="E83" s="12">
         <v>2.5</v>
       </c>
-      <c r="F83" s="43"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3295,7 +3295,7 @@
       <c r="E84" s="12">
         <v>2.5</v>
       </c>
-      <c r="F84" s="43"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3348,7 +3348,7 @@
       <c r="E85" s="12">
         <v>2.5</v>
       </c>
-      <c r="F85" s="43"/>
+      <c r="F85" s="49"/>
       <c r="G85" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3401,7 +3401,7 @@
       <c r="E86" s="12">
         <v>2.5</v>
       </c>
-      <c r="F86" s="43"/>
+      <c r="F86" s="49"/>
       <c r="G86" s="21">
         <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
@@ -3454,7 +3454,7 @@
       <c r="E87" s="12">
         <v>2.5</v>
       </c>
-      <c r="F87" s="43"/>
+      <c r="F87" s="49"/>
       <c r="G87" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -3507,7 +3507,7 @@
       <c r="E88" s="12">
         <v>2.5</v>
       </c>
-      <c r="F88" s="43"/>
+      <c r="F88" s="49"/>
       <c r="G88" s="21">
         <f t="shared" si="1"/>
         <v>5.3999999999999826E-2</v>
@@ -3560,7 +3560,7 @@
       <c r="E89" s="12">
         <v>2.5</v>
       </c>
-      <c r="F89" s="43"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="21">
         <f t="shared" si="1"/>
         <v>2.4000000000000021E-2</v>
@@ -3610,7 +3610,7 @@
       <c r="E90" s="12">
         <v>2.5</v>
       </c>
-      <c r="F90" s="43"/>
+      <c r="F90" s="49"/>
       <c r="G90" s="21">
         <f t="shared" si="1"/>
         <v>3.3999999999999808E-2</v>
@@ -3660,7 +3660,7 @@
       <c r="E91" s="13">
         <v>2.5</v>
       </c>
-      <c r="F91" s="44"/>
+      <c r="F91" s="50"/>
       <c r="G91" s="21">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
@@ -5473,6 +5473,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F82:F91"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="F62:F71"/>
+    <mergeCell ref="F72:F81"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A25:A34"/>
@@ -5480,11 +5485,6 @@
     <mergeCell ref="F15:F24"/>
     <mergeCell ref="F25:F34"/>
     <mergeCell ref="F35:F44"/>
-    <mergeCell ref="F82:F91"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="F62:F71"/>
-    <mergeCell ref="F72:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
